--- a/raw_data/20200818_saline/20200818_Sensor3_Test_81.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_81.xlsx
@@ -1,688 +1,1104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E65916-AF55-4E84-8CFD-F43596A35A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>72560.348341</v>
+        <v>72560.348341000004</v>
       </c>
       <c r="B2" s="1">
         <v>20.155652</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.990000</v>
+        <v>1149.99</v>
       </c>
       <c r="D2" s="1">
-        <v>-251.883000</v>
+        <v>-251.88300000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>72571.427974</v>
+        <v>72571.427974000006</v>
       </c>
       <c r="G2" s="1">
-        <v>20.158730</v>
+        <v>20.158729999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.970000</v>
+        <v>1169.97</v>
       </c>
       <c r="I2" s="1">
-        <v>-211.530000</v>
+        <v>-211.53</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>72581.708553</v>
+        <v>72581.708553000004</v>
       </c>
       <c r="L2" s="1">
         <v>20.161586</v>
       </c>
       <c r="M2" s="1">
-        <v>1197.890000</v>
+        <v>1197.8900000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.704000</v>
+        <v>-148.70400000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>72591.919195</v>
+        <v>72591.919194999995</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.164422</v>
+        <v>20.164421999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>1205.700000</v>
+        <v>1205.7</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.507000</v>
+        <v>-127.50700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>72602.119422</v>
+        <v>72602.119422000003</v>
       </c>
       <c r="V2" s="1">
-        <v>20.167255</v>
+        <v>20.167255000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1213.430000</v>
+        <v>1213.43</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.412000</v>
+        <v>-107.41200000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>72612.582070</v>
+        <v>72612.582070000004</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.170162</v>
+        <v>20.170162000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.796100</v>
+        <v>-90.796099999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>72622.852691</v>
+        <v>72622.852690999993</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.173015</v>
+        <v>20.173014999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.462500</v>
+        <v>-86.462500000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>72633.610919</v>
+        <v>72633.610918999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.176003</v>
+        <v>20.176003000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1233.740000</v>
+        <v>1233.74</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.010700</v>
+        <v>-90.0107</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>72644.294743</v>
+        <v>72644.294743000006</v>
       </c>
       <c r="AP2" s="1">
-        <v>20.178971</v>
+        <v>20.178971000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1241.890000</v>
+        <v>1241.8900000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.976000</v>
+        <v>-101.976</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>72655.186392</v>
+        <v>72655.186392000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>20.181996</v>
+        <v>20.181996000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1252.060000</v>
+        <v>1252.06</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.291000</v>
+        <v>-121.291</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>72666.283385</v>
+        <v>72666.283385000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.185079</v>
+        <v>20.185079000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1260.630000</v>
+        <v>1260.6300000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.751000</v>
+        <v>-138.751</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>72677.196363</v>
+        <v>72677.196362999995</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.188110</v>
+        <v>20.188110000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1301.330000</v>
+        <v>1301.33</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.367000</v>
+        <v>-220.36699999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>72687.848478</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.191069</v>
+        <v>20.191068999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1371.620000</v>
+        <v>1371.62</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.795000</v>
+        <v>-355.79500000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>72699.642813</v>
+        <v>72699.642812999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>20.194345</v>
+        <v>20.194344999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1486.820000</v>
+        <v>1486.82</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.411000</v>
+        <v>-575.41099999999994</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>72710.247808</v>
@@ -691,180 +1107,180 @@
         <v>20.197291</v>
       </c>
       <c r="BU2" s="1">
-        <v>1620.070000</v>
+        <v>1620.07</v>
       </c>
       <c r="BV2" s="1">
-        <v>-822.536000</v>
+        <v>-822.53599999999994</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>72720.988145</v>
+        <v>72720.988144999996</v>
       </c>
       <c r="BY2" s="1">
         <v>20.200274</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1772.480000</v>
+        <v>1772.48</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1090.390000</v>
+        <v>-1090.3900000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>72731.894674</v>
+        <v>72731.894673999996</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.203304</v>
+        <v>20.203303999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2190.730000</v>
+        <v>2190.73</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1735.060000</v>
+        <v>-1735.06</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>72561.079941</v>
+        <v>72561.079941000004</v>
       </c>
       <c r="B3" s="1">
         <v>20.155856</v>
       </c>
       <c r="C3" s="1">
-        <v>1150.000000</v>
+        <v>1150</v>
       </c>
       <c r="D3" s="1">
-        <v>-251.632000</v>
+        <v>-251.63200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>72571.836678</v>
+        <v>72571.836678000007</v>
       </c>
       <c r="G3" s="1">
-        <v>20.158844</v>
+        <v>20.158843999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>1170.790000</v>
+        <v>1170.79</v>
       </c>
       <c r="I3" s="1">
-        <v>-212.750000</v>
+        <v>-212.75</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>72582.053768</v>
+        <v>72582.053767999998</v>
       </c>
       <c r="L3" s="1">
-        <v>20.161682</v>
+        <v>20.161681999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1197.610000</v>
+        <v>1197.6099999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.765000</v>
+        <v>-148.76499999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>72592.269867</v>
+        <v>72592.269866999995</v>
       </c>
       <c r="Q3" s="1">
-        <v>20.164519</v>
+        <v>20.164518999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1205.750000</v>
+        <v>1205.75</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.526000</v>
+        <v>-127.526</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>72602.500350</v>
+        <v>72602.500350000002</v>
       </c>
       <c r="V3" s="1">
         <v>20.167361</v>
       </c>
       <c r="W3" s="1">
-        <v>1213.270000</v>
+        <v>1213.27</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.348000</v>
+        <v>-107.348</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>72613.004623</v>
+        <v>72613.004623000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>20.170279</v>
+        <v>20.170279000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1221.330000</v>
+        <v>1221.33</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.784900</v>
+        <v>-90.784899999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>72623.284211</v>
+        <v>72623.284211000006</v>
       </c>
       <c r="AF3" s="1">
-        <v>20.173135</v>
+        <v>20.173134999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1226.420000</v>
+        <v>1226.42</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.387200</v>
+        <v>-86.387200000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>72634.030532</v>
+        <v>72634.030532000004</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.176120</v>
+        <v>20.176120000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1233.710000</v>
+        <v>1233.71</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.016000</v>
+        <v>-90.016000000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>72644.642936</v>
+        <v>72644.642936000004</v>
       </c>
       <c r="AP3" s="1">
         <v>20.179067</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1241.890000</v>
+        <v>1241.8900000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.999000</v>
+        <v>-101.999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>72655.552937</v>
@@ -873,13 +1289,13 @@
         <v>20.182098</v>
       </c>
       <c r="AV3" s="1">
-        <v>1252.060000</v>
+        <v>1252.06</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.280000</v>
+        <v>-121.28</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>72666.676217</v>
@@ -888,1208 +1304,1208 @@
         <v>20.185188</v>
       </c>
       <c r="BA3" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.780000</v>
+        <v>-138.78</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>72677.678474</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.188244</v>
+        <v>20.188244000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1301.300000</v>
+        <v>1301.3</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.373000</v>
+        <v>-220.37299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>72688.601372</v>
+        <v>72688.601372000005</v>
       </c>
       <c r="BJ3" s="1">
-        <v>20.191278</v>
+        <v>20.191278000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1371.660000</v>
+        <v>1371.66</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.768000</v>
+        <v>-355.76799999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>72700.051518</v>
+        <v>72700.051517999993</v>
       </c>
       <c r="BO3" s="1">
-        <v>20.194459</v>
+        <v>20.194458999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1486.840000</v>
+        <v>1486.84</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.449000</v>
+        <v>-575.44899999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>72710.711039</v>
+        <v>72710.711039000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>20.197420</v>
+        <v>20.197420000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1620.040000</v>
+        <v>1620.04</v>
       </c>
       <c r="BV3" s="1">
-        <v>-822.680000</v>
+        <v>-822.68</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>72721.452400</v>
+        <v>72721.452399999995</v>
       </c>
       <c r="BY3" s="1">
-        <v>20.200403</v>
+        <v>20.200403000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1772.340000</v>
+        <v>1772.34</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1090.490000</v>
+        <v>-1090.49</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>72732.804338</v>
+        <v>72732.804338000002</v>
       </c>
       <c r="CD3" s="1">
         <v>20.203557</v>
       </c>
       <c r="CE3" s="1">
-        <v>2189.580000</v>
+        <v>2189.58</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1737.540000</v>
+        <v>-1737.54</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>72561.431604</v>
+        <v>72561.431603999998</v>
       </c>
       <c r="B4" s="1">
         <v>20.155953</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.860000</v>
+        <v>1149.8599999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-251.675000</v>
+        <v>-251.67500000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>72572.184870</v>
+        <v>72572.184869999997</v>
       </c>
       <c r="G4" s="1">
-        <v>20.158940</v>
+        <v>20.158940000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1170.380000</v>
+        <v>1170.3800000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-212.096000</v>
+        <v>-212.096</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>72582.399027</v>
+        <v>72582.399027000007</v>
       </c>
       <c r="L4" s="1">
-        <v>20.161778</v>
+        <v>20.161778000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1197.720000</v>
+        <v>1197.72</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.344000</v>
+        <v>-148.34399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>72592.618059</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.164616</v>
+        <v>20.164615999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1205.670000</v>
+        <v>1205.67</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.544000</v>
+        <v>-127.544</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>72602.922445</v>
+        <v>72602.922445000004</v>
       </c>
       <c r="V4" s="1">
-        <v>20.167478</v>
+        <v>20.167477999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1213.320000</v>
+        <v>1213.32</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.423000</v>
+        <v>-107.423</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>72613.348847</v>
+        <v>72613.348847000001</v>
       </c>
       <c r="AA4" s="1">
         <v>20.170375</v>
       </c>
       <c r="AB4" s="1">
-        <v>1221.470000</v>
+        <v>1221.47</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.805800</v>
+        <v>-90.805800000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>72623.580323</v>
+        <v>72623.580323000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.173217</v>
+        <v>20.173217000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1226.310000</v>
+        <v>1226.31</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.574300</v>
+        <v>-86.574299999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>72634.377759</v>
+        <v>72634.377758999995</v>
       </c>
       <c r="AK4" s="1">
         <v>20.176216</v>
       </c>
       <c r="AL4" s="1">
-        <v>1233.710000</v>
+        <v>1233.71</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.976200</v>
+        <v>-89.976200000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>72645.002038</v>
+        <v>72645.002038000006</v>
       </c>
       <c r="AP4" s="1">
         <v>20.179167</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1241.890000</v>
+        <v>1241.8900000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.950000</v>
+        <v>-101.95</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>72655.914519</v>
+        <v>72655.914518999998</v>
       </c>
       <c r="AU4" s="1">
         <v>20.182198</v>
       </c>
       <c r="AV4" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.289000</v>
+        <v>-121.289</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>72667.390952</v>
+        <v>72667.390952000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.185386</v>
+        <v>20.185386000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.730000</v>
+        <v>-138.72999999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>72677.931434</v>
+        <v>72677.931433999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.188314</v>
+        <v>20.188313999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1301.300000</v>
+        <v>1301.3</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.389000</v>
+        <v>-220.38900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>72689.004619</v>
+        <v>72689.004618999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>20.191390</v>
+        <v>20.191389999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1371.640000</v>
+        <v>1371.64</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.760000</v>
+        <v>-355.76</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>72700.468480</v>
+        <v>72700.468479999996</v>
       </c>
       <c r="BO4" s="1">
         <v>20.194575</v>
       </c>
       <c r="BP4" s="1">
-        <v>1486.860000</v>
+        <v>1486.86</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.426000</v>
+        <v>-575.42600000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>72711.445149</v>
+        <v>72711.445149000006</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.197624</v>
+        <v>20.197624000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.030000</v>
+        <v>1620.03</v>
       </c>
       <c r="BV4" s="1">
-        <v>-822.824000</v>
+        <v>-822.82399999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>72722.227151</v>
+        <v>72722.227150999999</v>
       </c>
       <c r="BY4" s="1">
         <v>20.200619</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1772.400000</v>
+        <v>1772.4</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1090.420000</v>
+        <v>-1090.42</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>72733.028529</v>
+        <v>72733.028529000003</v>
       </c>
       <c r="CD4" s="1">
         <v>20.203619</v>
       </c>
       <c r="CE4" s="1">
-        <v>2188.890000</v>
+        <v>2188.89</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1737.170000</v>
+        <v>-1737.17</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>72561.783267</v>
+        <v>72561.783267000006</v>
       </c>
       <c r="B5" s="1">
-        <v>20.156051</v>
+        <v>20.156051000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.970000</v>
+        <v>1149.97</v>
       </c>
       <c r="D5" s="1">
-        <v>-251.608000</v>
+        <v>-251.608</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>72572.526615</v>
+        <v>72572.526614999995</v>
       </c>
       <c r="G5" s="1">
-        <v>20.159035</v>
+        <v>20.159034999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1170.260000</v>
+        <v>1170.26</v>
       </c>
       <c r="I5" s="1">
-        <v>-212.520000</v>
+        <v>-212.52</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>72582.841912</v>
+        <v>72582.841912000004</v>
       </c>
       <c r="L5" s="1">
         <v>20.161901</v>
       </c>
       <c r="M5" s="1">
-        <v>1197.770000</v>
+        <v>1197.77</v>
       </c>
       <c r="N5" s="1">
-        <v>-148.791000</v>
+        <v>-148.791</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>72593.047131</v>
+        <v>72593.047130999999</v>
       </c>
       <c r="Q5" s="1">
         <v>20.164735</v>
       </c>
       <c r="R5" s="1">
-        <v>1205.640000</v>
+        <v>1205.6400000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.531000</v>
+        <v>-127.53100000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>72603.187310</v>
+        <v>72603.187309999994</v>
       </c>
       <c r="V5" s="1">
-        <v>20.167552</v>
+        <v>20.167552000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.457000</v>
+        <v>-107.45699999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>72613.696543</v>
+        <v>72613.696542999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>20.170471</v>
+        <v>20.170470999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1221.220000</v>
+        <v>1221.22</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.755700</v>
+        <v>-90.755700000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>72623.923058</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.173312</v>
+        <v>20.173311999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1226.290000</v>
+        <v>1226.29</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.575600</v>
+        <v>-86.575599999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>72634.727443</v>
+        <v>72634.727442999996</v>
       </c>
       <c r="AK5" s="1">
         <v>20.176313</v>
       </c>
       <c r="AL5" s="1">
-        <v>1233.700000</v>
+        <v>1233.7</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.016700</v>
+        <v>-90.0167</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>72645.722729</v>
+        <v>72645.722729000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>20.179367</v>
+        <v>20.179366999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1241.880000</v>
+        <v>1241.8800000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.989000</v>
+        <v>-101.989</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>72656.653063</v>
+        <v>72656.653063000005</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.182404</v>
+        <v>20.182403999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1252.060000</v>
+        <v>1252.06</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.299000</v>
+        <v>-121.29900000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>72667.750057</v>
+        <v>72667.750056999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20.185486</v>
+        <v>20.185486000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1260.630000</v>
+        <v>1260.6300000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.759000</v>
+        <v>-138.75899999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>72678.295001</v>
+        <v>72678.295001000006</v>
       </c>
       <c r="BE5" s="1">
-        <v>20.188415</v>
+        <v>20.188414999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1301.310000</v>
+        <v>1301.31</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.362000</v>
+        <v>-220.36199999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>72689.380587</v>
+        <v>72689.380587000007</v>
       </c>
       <c r="BJ5" s="1">
         <v>20.191495</v>
       </c>
       <c r="BK5" s="1">
-        <v>1371.640000</v>
+        <v>1371.64</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.743000</v>
+        <v>-355.74299999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>72701.188844</v>
+        <v>72701.188844000004</v>
       </c>
       <c r="BO5" s="1">
         <v>20.194775</v>
       </c>
       <c r="BP5" s="1">
-        <v>1486.870000</v>
+        <v>1486.87</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.479000</v>
+        <v>-575.47900000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>72711.562183</v>
+        <v>72711.562183000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.197656</v>
+        <v>20.197655999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1619.950000</v>
+        <v>1619.95</v>
       </c>
       <c r="BV5" s="1">
-        <v>-822.975000</v>
+        <v>-822.97500000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>72722.339744</v>
+        <v>72722.339743999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.200650</v>
+        <v>20.20065</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1772.370000</v>
+        <v>1772.37</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1090.420000</v>
+        <v>-1090.42</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>72733.549826</v>
+        <v>72733.549826000002</v>
       </c>
       <c r="CD5" s="1">
         <v>20.203764</v>
       </c>
       <c r="CE5" s="1">
-        <v>2190.790000</v>
+        <v>2190.79</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1736.720000</v>
+        <v>-1736.72</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>72562.113107</v>
+        <v>72562.113106999997</v>
       </c>
       <c r="B6" s="1">
         <v>20.156143</v>
       </c>
       <c r="C6" s="1">
-        <v>1150.040000</v>
+        <v>1150.04</v>
       </c>
       <c r="D6" s="1">
-        <v>-251.764000</v>
+        <v>-251.76400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>72572.975492</v>
+        <v>72572.975491999998</v>
       </c>
       <c r="G6" s="1">
-        <v>20.159160</v>
+        <v>20.15916</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.540000</v>
+        <v>1170.54</v>
       </c>
       <c r="I6" s="1">
-        <v>-211.770000</v>
+        <v>-211.77</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>72583.091399</v>
+        <v>72583.091398999997</v>
       </c>
       <c r="L6" s="1">
-        <v>20.161970</v>
+        <v>20.16197</v>
       </c>
       <c r="M6" s="1">
-        <v>1197.870000</v>
+        <v>1197.8699999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.771000</v>
+        <v>-148.77099999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>72593.327340</v>
+        <v>72593.327340000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.164813</v>
+        <v>20.164812999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1205.650000</v>
+        <v>1205.6500000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.490000</v>
+        <v>-127.49</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>72603.532029</v>
+        <v>72603.532028999995</v>
       </c>
       <c r="V6" s="1">
         <v>20.167648</v>
       </c>
       <c r="W6" s="1">
-        <v>1213.480000</v>
+        <v>1213.48</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.263000</v>
+        <v>-107.26300000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>72614.046734</v>
+        <v>72614.046734000003</v>
       </c>
       <c r="AA6" s="1">
         <v>20.170569</v>
       </c>
       <c r="AB6" s="1">
-        <v>1221.290000</v>
+        <v>1221.29</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.904700</v>
+        <v>-90.904700000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>72624.267281</v>
+        <v>72624.267280999993</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.173408</v>
+        <v>20.173407999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>1226.360000</v>
+        <v>1226.3599999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.420600</v>
+        <v>-86.420599999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>72635.424072</v>
+        <v>72635.424071999994</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.176507</v>
+        <v>20.176507000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1233.720000</v>
+        <v>1233.72</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.017500</v>
+        <v>-90.017499999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>72646.079844</v>
+        <v>72646.079844000007</v>
       </c>
       <c r="AP6" s="1">
-        <v>20.179467</v>
+        <v>20.179466999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1241.900000</v>
+        <v>1241.9000000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.970000</v>
+        <v>-101.97</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>72657.035986</v>
+        <v>72657.035986000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.182510</v>
+        <v>20.182510000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1252.030000</v>
+        <v>1252.03</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.280000</v>
+        <v>-121.28</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>72668.109160</v>
+        <v>72668.109160000007</v>
       </c>
       <c r="AZ6" s="1">
-        <v>20.185586</v>
+        <v>20.185586000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.757000</v>
+        <v>-138.75700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>72678.976008</v>
+        <v>72678.976007999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.188604</v>
+        <v>20.188604000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1301.300000</v>
+        <v>1301.3</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.377000</v>
+        <v>-220.37700000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>72690.063578</v>
+        <v>72690.063578000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.191684</v>
+        <v>20.191683999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1371.670000</v>
+        <v>1371.67</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.772000</v>
+        <v>-355.77199999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>72701.313835</v>
+        <v>72701.313834999994</v>
       </c>
       <c r="BO6" s="1">
-        <v>20.194809</v>
+        <v>20.194808999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1486.820000</v>
+        <v>1486.82</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.457000</v>
+        <v>-575.45699999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>72711.971409</v>
+        <v>72711.971409000005</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.197770</v>
+        <v>20.197769999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1619.970000</v>
+        <v>1619.97</v>
       </c>
       <c r="BV6" s="1">
-        <v>-823.010000</v>
+        <v>-823.01</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>72722.771791</v>
+        <v>72722.771791000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>20.200770</v>
+        <v>20.200769999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1772.360000</v>
+        <v>1772.36</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1090.470000</v>
+        <v>-1090.47</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>72734.068175</v>
+        <v>72734.068174999993</v>
       </c>
       <c r="CD6" s="1">
-        <v>20.203908</v>
+        <v>20.203907999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>2190.020000</v>
+        <v>2190.02</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1737.240000</v>
+        <v>-1737.24</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>72562.805064</v>
       </c>
       <c r="B7" s="1">
-        <v>20.156335</v>
+        <v>20.156334999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.940000</v>
+        <v>1149.94</v>
       </c>
       <c r="D7" s="1">
-        <v>-251.750000</v>
+        <v>-251.75</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>72573.245316</v>
       </c>
       <c r="G7" s="1">
-        <v>20.159235</v>
+        <v>20.159234999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1170.730000</v>
+        <v>1170.73</v>
       </c>
       <c r="I7" s="1">
-        <v>-213.052000</v>
+        <v>-213.05199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>72583.437634</v>
+        <v>72583.437634000002</v>
       </c>
       <c r="L7" s="1">
-        <v>20.162066</v>
+        <v>20.162065999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1197.670000</v>
+        <v>1197.67</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.704000</v>
+        <v>-148.70400000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>72593.674041</v>
+        <v>72593.674041000006</v>
       </c>
       <c r="Q7" s="1">
-        <v>20.164909</v>
+        <v>20.164909000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1205.700000</v>
+        <v>1205.7</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.477000</v>
+        <v>-127.477</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>72603.876834</v>
+        <v>72603.876833999995</v>
       </c>
       <c r="V7" s="1">
-        <v>20.167744</v>
+        <v>20.167743999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1213.090000</v>
+        <v>1213.0899999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.333000</v>
+        <v>-107.333</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>72614.741117</v>
+        <v>72614.741116999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>20.170761</v>
+        <v>20.170760999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.923700</v>
+        <v>-90.923699999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>72624.953752</v>
+        <v>72624.953752000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>20.173598</v>
+        <v>20.173597999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1226.320000</v>
+        <v>1226.32</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.477100</v>
+        <v>-86.477099999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>72635.771490</v>
+        <v>72635.771489999999</v>
       </c>
       <c r="AK7" s="1">
         <v>20.176603</v>
       </c>
       <c r="AL7" s="1">
-        <v>1233.720000</v>
+        <v>1233.72</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.014200</v>
+        <v>-90.014200000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>72646.443413</v>
+        <v>72646.443413000001</v>
       </c>
       <c r="AP7" s="1">
         <v>20.179568</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1241.890000</v>
+        <v>1241.8900000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.994000</v>
+        <v>-101.994</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>72657.399048</v>
+        <v>72657.399048000007</v>
       </c>
       <c r="AU7" s="1">
-        <v>20.182611</v>
+        <v>20.182611000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.300000</v>
+        <v>-121.3</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>72668.794134</v>
+        <v>72668.794133999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>20.185776</v>
+        <v>20.185776000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1260.620000</v>
+        <v>1260.6199999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.730000</v>
+        <v>-138.72999999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>72679.410039</v>
+        <v>72679.410038999995</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.188725</v>
+        <v>20.188725000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1301.330000</v>
+        <v>1301.33</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.337000</v>
+        <v>-220.33699999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>72690.537257</v>
+        <v>72690.537257000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>20.191816</v>
+        <v>20.191815999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1371.640000</v>
+        <v>1371.64</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.760000</v>
+        <v>-355.76</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>72701.707164</v>
+        <v>72701.707164000007</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.194919</v>
+        <v>20.194918999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1486.790000</v>
+        <v>1486.79</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.421000</v>
+        <v>-575.42100000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>72712.398439</v>
+        <v>72712.398438999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>20.197888</v>
+        <v>20.197887999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1619.760000</v>
+        <v>1619.76</v>
       </c>
       <c r="BV7" s="1">
-        <v>-823.045000</v>
+        <v>-823.04499999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>72723.192862</v>
+        <v>72723.192861999996</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.200887</v>
+        <v>20.200887000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1772.450000</v>
+        <v>1772.45</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1090.560000</v>
+        <v>-1090.56</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>72734.617747</v>
+        <v>72734.617746999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.204060</v>
+        <v>20.204059999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>2188.850000</v>
+        <v>2188.85</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1737.400000</v>
+        <v>-1737.4</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>72563.152721</v>
+        <v>72563.152721000006</v>
       </c>
       <c r="B8" s="1">
-        <v>20.156431</v>
+        <v>20.156431000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1150.030000</v>
+        <v>1150.03</v>
       </c>
       <c r="D8" s="1">
-        <v>-251.949000</v>
+        <v>-251.94900000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>72573.593011</v>
+        <v>72573.593011000004</v>
       </c>
       <c r="G8" s="1">
-        <v>20.159331</v>
+        <v>20.159331000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1170.710000</v>
+        <v>1170.71</v>
       </c>
       <c r="I8" s="1">
-        <v>-211.839000</v>
+        <v>-211.839</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>72583.784808</v>
+        <v>72583.784807999997</v>
       </c>
       <c r="L8" s="1">
-        <v>20.162162</v>
+        <v>20.162161999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1197.790000</v>
+        <v>1197.79</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.781000</v>
+        <v>-148.78100000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>72594.023721</v>
+        <v>72594.023721000005</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.165007</v>
+        <v>20.165006999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1205.760000</v>
+        <v>1205.76</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.532000</v>
+        <v>-127.532</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>72604.561259</v>
+        <v>72604.561258999995</v>
       </c>
       <c r="V8" s="1">
-        <v>20.167934</v>
+        <v>20.167933999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1213.300000</v>
+        <v>1213.3</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.414000</v>
+        <v>-107.414</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>72615.092676</v>
@@ -2098,2613 +2514,2613 @@
         <v>20.170859</v>
       </c>
       <c r="AB8" s="1">
-        <v>1221.380000</v>
+        <v>1221.3800000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.787900</v>
+        <v>-90.787899999999993</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>72625.304448</v>
+        <v>72625.304447999995</v>
       </c>
       <c r="AF8" s="1">
         <v>20.173696</v>
       </c>
       <c r="AG8" s="1">
-        <v>1226.050000</v>
+        <v>1226.05</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.387600</v>
+        <v>-86.387600000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>72636.117201</v>
+        <v>72636.117201000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.176699</v>
+        <v>20.176698999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1233.720000</v>
+        <v>1233.72</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.004800</v>
+        <v>-90.004800000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>72647.130867</v>
       </c>
       <c r="AP8" s="1">
-        <v>20.179759</v>
+        <v>20.179759000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1241.910000</v>
+        <v>1241.9100000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.951000</v>
+        <v>-101.95099999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>72658.077113</v>
+        <v>72658.077113000007</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.182799</v>
+        <v>20.182798999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1252.050000</v>
+        <v>1252.05</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.297000</v>
+        <v>-121.297</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>72669.184485</v>
+        <v>72669.184485000005</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.185885</v>
+        <v>20.185884999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1260.660000</v>
+        <v>1260.6600000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.756000</v>
+        <v>-138.756</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>72679.772088</v>
+        <v>72679.772087999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>20.188826</v>
+        <v>20.188825999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1301.300000</v>
+        <v>1301.3</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.367000</v>
+        <v>-220.36699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>72690.926121</v>
+        <v>72690.926120999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>20.191924</v>
       </c>
       <c r="BK8" s="1">
-        <v>1371.650000</v>
+        <v>1371.65</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.765000</v>
+        <v>-355.76499999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>72702.109417</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.195030</v>
+        <v>20.195029999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1486.830000</v>
+        <v>1486.83</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.456000</v>
+        <v>-575.45600000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>72712.831436</v>
+        <v>72712.831435999993</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.198009</v>
+        <v>20.198008999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1619.660000</v>
+        <v>1619.66</v>
       </c>
       <c r="BV8" s="1">
-        <v>-823.116000</v>
+        <v>-823.11599999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>72723.629342</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.201008</v>
+        <v>20.201008000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1772.450000</v>
+        <v>1772.45</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1090.340000</v>
+        <v>-1090.3399999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>72735.145950</v>
+        <v>72735.145950000006</v>
       </c>
       <c r="CD8" s="1">
         <v>20.204207</v>
       </c>
       <c r="CE8" s="1">
-        <v>2190.850000</v>
+        <v>2190.85</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1736.810000</v>
+        <v>-1736.81</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>72563.491489</v>
+        <v>72563.491489000007</v>
       </c>
       <c r="B9" s="1">
-        <v>20.156525</v>
+        <v>20.156524999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.970000</v>
+        <v>1149.97</v>
       </c>
       <c r="D9" s="1">
-        <v>-251.780000</v>
+        <v>-251.78</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>72573.936281</v>
+        <v>72573.936281000002</v>
       </c>
       <c r="G9" s="1">
-        <v>20.159427</v>
+        <v>20.159427000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1170.100000</v>
+        <v>1170.0999999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-212.367000</v>
+        <v>-212.36699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>72584.476726</v>
+        <v>72584.476725999994</v>
       </c>
       <c r="L9" s="1">
-        <v>20.162355</v>
+        <v>20.162355000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>1197.670000</v>
+        <v>1197.67</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.793000</v>
+        <v>-148.79300000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>72594.723080</v>
+        <v>72594.723079999996</v>
       </c>
       <c r="Q9" s="1">
         <v>20.165201</v>
       </c>
       <c r="R9" s="1">
-        <v>1205.700000</v>
+        <v>1205.7</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.570000</v>
+        <v>-127.57</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>72604.903466</v>
+        <v>72604.903466000003</v>
       </c>
       <c r="V9" s="1">
-        <v>20.168029</v>
+        <v>20.168029000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1213.150000</v>
+        <v>1213.1500000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.475000</v>
+        <v>-107.47499999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>72615.441965</v>
+        <v>72615.441965000005</v>
       </c>
       <c r="AA9" s="1">
         <v>20.170956</v>
       </c>
       <c r="AB9" s="1">
-        <v>1221.340000</v>
+        <v>1221.3399999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.773000</v>
+        <v>-90.772999999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>72625.649662</v>
+        <v>72625.649661999996</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.173792</v>
+        <v>20.173791999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1226.300000</v>
+        <v>1226.3</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.690300</v>
+        <v>-86.690299999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>72636.781842</v>
+        <v>72636.781841999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>20.176884</v>
+        <v>20.176884000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1233.720000</v>
+        <v>1233.72</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.030900</v>
+        <v>-90.030900000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>72647.522210</v>
+        <v>72647.522209999996</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.179867</v>
+        <v>20.179867000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1241.870000</v>
+        <v>1241.8699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.973000</v>
+        <v>-101.973</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>72658.523018</v>
+        <v>72658.523018000007</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.182923</v>
+        <v>20.182922999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.285000</v>
+        <v>-121.285</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>72669.545078</v>
+        <v>72669.545077999996</v>
       </c>
       <c r="AZ9" s="1">
-        <v>20.185985</v>
+        <v>20.185984999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.712000</v>
+        <v>-138.71199999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>72680.131224</v>
+        <v>72680.131223999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>20.188925</v>
+        <v>20.188925000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1301.300000</v>
+        <v>1301.3</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.371000</v>
+        <v>-220.37100000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>72691.301592</v>
+        <v>72691.301592000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>20.192028</v>
+        <v>20.192028000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1371.620000</v>
+        <v>1371.62</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.731000</v>
+        <v>-355.73099999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>72702.534004</v>
+        <v>72702.534004000001</v>
       </c>
       <c r="BO9" s="1">
         <v>20.195148</v>
       </c>
       <c r="BP9" s="1">
-        <v>1486.860000</v>
+        <v>1486.86</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.445000</v>
+        <v>-575.44500000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>72713.226253</v>
+        <v>72713.226253000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>20.198118</v>
+        <v>20.198118000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1619.590000</v>
+        <v>1619.59</v>
       </c>
       <c r="BV9" s="1">
-        <v>-823.156000</v>
+        <v>-823.15599999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>72724.040524</v>
+        <v>72724.040523999996</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.201122</v>
+        <v>20.201122000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1772.370000</v>
+        <v>1772.37</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1090.390000</v>
+        <v>-1090.3900000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>72735.664765</v>
+        <v>72735.664764999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>20.204351</v>
+        <v>20.204350999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2189.980000</v>
+        <v>2189.98</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1734.680000</v>
+        <v>-1734.68</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>72564.175970</v>
+        <v>72564.175969999997</v>
       </c>
       <c r="B10" s="1">
-        <v>20.156716</v>
+        <v>20.156715999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.970000</v>
+        <v>1149.97</v>
       </c>
       <c r="D10" s="1">
-        <v>-251.653000</v>
+        <v>-251.65299999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>72574.631140</v>
+        <v>72574.631139999998</v>
       </c>
       <c r="G10" s="1">
-        <v>20.159620</v>
+        <v>20.15962</v>
       </c>
       <c r="H10" s="1">
-        <v>1170.480000</v>
+        <v>1170.48</v>
       </c>
       <c r="I10" s="1">
-        <v>-211.359000</v>
+        <v>-211.35900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>72584.827895</v>
+        <v>72584.827894999995</v>
       </c>
       <c r="L10" s="1">
-        <v>20.162452</v>
+        <v>20.162451999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>1197.740000</v>
+        <v>1197.74</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.774000</v>
+        <v>-148.774</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>72595.071773</v>
+        <v>72595.071773000003</v>
       </c>
       <c r="Q10" s="1">
         <v>20.165298</v>
       </c>
       <c r="R10" s="1">
-        <v>1205.680000</v>
+        <v>1205.68</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.519000</v>
+        <v>-127.51900000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>72605.252155</v>
+        <v>72605.252154999995</v>
       </c>
       <c r="V10" s="1">
-        <v>20.168126</v>
+        <v>20.168126000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1213.250000</v>
+        <v>1213.25</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.299000</v>
+        <v>-107.29900000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>72616.106107</v>
       </c>
       <c r="AA10" s="1">
-        <v>20.171141</v>
+        <v>20.171140999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.888200</v>
+        <v>-90.888199999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>72626.311294</v>
+        <v>72626.311293999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.173975</v>
+        <v>20.173974999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1226.330000</v>
+        <v>1226.33</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.622300</v>
+        <v>-86.622299999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>72637.164257</v>
+        <v>72637.164256999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.176990</v>
+        <v>20.17699</v>
       </c>
       <c r="AL10" s="1">
-        <v>1233.710000</v>
+        <v>1233.71</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.006800</v>
+        <v>-90.006799999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>72647.883831</v>
+        <v>72647.883830999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.179968</v>
+        <v>20.179967999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1241.880000</v>
+        <v>1241.8800000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.967000</v>
+        <v>-101.967</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>72658.888756</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.183025</v>
+        <v>20.183025000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1252.030000</v>
+        <v>1252.03</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.278000</v>
+        <v>-121.27800000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>72669.903685</v>
+        <v>72669.903684999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.186084</v>
+        <v>20.186084000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.722000</v>
+        <v>-138.72200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>72680.564198</v>
+        <v>72680.564197999993</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.189046</v>
+        <v>20.189046000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1301.330000</v>
+        <v>1301.33</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.353000</v>
+        <v>-220.35300000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>72691.732617</v>
+        <v>72691.732617000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>20.192148</v>
       </c>
       <c r="BK10" s="1">
-        <v>1371.640000</v>
+        <v>1371.64</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.776000</v>
+        <v>-355.77600000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>72702.922895</v>
+        <v>72702.922894999996</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.195256</v>
+        <v>20.195256000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1486.850000</v>
+        <v>1486.85</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.461000</v>
+        <v>-575.46100000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>72713.644875</v>
+        <v>72713.644874999998</v>
       </c>
       <c r="BT10" s="1">
         <v>20.198235</v>
       </c>
       <c r="BU10" s="1">
-        <v>1619.470000</v>
+        <v>1619.47</v>
       </c>
       <c r="BV10" s="1">
-        <v>-823.055000</v>
+        <v>-823.05499999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>72724.457196</v>
+        <v>72724.457196000003</v>
       </c>
       <c r="BY10" s="1">
         <v>20.201238</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1772.300000</v>
+        <v>1772.3</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1090.310000</v>
+        <v>-1090.31</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>72736.185069</v>
+        <v>72736.185068999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>20.204496</v>
+        <v>20.204495999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2188.010000</v>
+        <v>2188.0100000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1735.700000</v>
+        <v>-1735.7</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>72564.522208</v>
+        <v>72564.522207999995</v>
       </c>
       <c r="B11" s="1">
-        <v>20.156812</v>
+        <v>20.156811999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1150.130000</v>
+        <v>1150.1300000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-251.991000</v>
+        <v>-251.99100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>72574.975362</v>
+        <v>72574.975361999997</v>
       </c>
       <c r="G11" s="1">
-        <v>20.159715</v>
+        <v>20.159714999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1170.910000</v>
+        <v>1170.9100000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-211.933000</v>
+        <v>-211.93299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>72585.172614</v>
+        <v>72585.172613999996</v>
       </c>
       <c r="L11" s="1">
-        <v>20.162548</v>
+        <v>20.162548000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1197.540000</v>
+        <v>1197.54</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.760000</v>
+        <v>-148.76</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>72595.743351</v>
+        <v>72595.743350999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>20.165484</v>
+        <v>20.165483999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1205.610000</v>
+        <v>1205.6099999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.478000</v>
+        <v>-127.47799999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>72605.910133</v>
+        <v>72605.910132999998</v>
       </c>
       <c r="V11" s="1">
         <v>20.168308</v>
       </c>
       <c r="W11" s="1">
-        <v>1213.190000</v>
+        <v>1213.19</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.446000</v>
+        <v>-107.446</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>72616.486539</v>
+        <v>72616.486539000005</v>
       </c>
       <c r="AA11" s="1">
         <v>20.171246</v>
       </c>
       <c r="AB11" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.920200</v>
+        <v>-90.920199999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>72626.678831</v>
+        <v>72626.678830999997</v>
       </c>
       <c r="AF11" s="1">
         <v>20.174077</v>
       </c>
       <c r="AG11" s="1">
-        <v>1226.290000</v>
+        <v>1226.29</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.699300</v>
+        <v>-86.699299999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>72637.514928</v>
+        <v>72637.514928000004</v>
       </c>
       <c r="AK11" s="1">
         <v>20.177087</v>
       </c>
       <c r="AL11" s="1">
-        <v>1233.720000</v>
+        <v>1233.72</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.002900</v>
+        <v>-90.002899999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>72648.242433</v>
+        <v>72648.242433000007</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.180067</v>
+        <v>20.180067000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1241.880000</v>
+        <v>1241.8800000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.982000</v>
+        <v>-101.982</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>72659.251603</v>
+        <v>72659.251602999997</v>
       </c>
       <c r="AU11" s="1">
         <v>20.183125</v>
       </c>
       <c r="AV11" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.295000</v>
+        <v>-121.295</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>72670.329781</v>
+        <v>72670.329780999993</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.186203</v>
+        <v>20.186202999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1260.620000</v>
+        <v>1260.6199999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.734000</v>
+        <v>-138.73400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>72680.855351</v>
+        <v>72680.855351000006</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.189126</v>
+        <v>20.189126000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1301.300000</v>
+        <v>1301.3</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.336000</v>
+        <v>-220.33600000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>72692.053529</v>
+        <v>72692.053528999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.192237</v>
+        <v>20.192236999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1371.600000</v>
+        <v>1371.6</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.752000</v>
+        <v>-355.75200000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>72703.344456</v>
+        <v>72703.344456000006</v>
       </c>
       <c r="BO11" s="1">
         <v>20.195373</v>
       </c>
       <c r="BP11" s="1">
-        <v>1486.840000</v>
+        <v>1486.84</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.446000</v>
+        <v>-575.44600000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>72714.059530</v>
+        <v>72714.059529999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>20.198350</v>
+        <v>20.198350000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1619.350000</v>
+        <v>1619.35</v>
       </c>
       <c r="BV11" s="1">
-        <v>-823.019000</v>
+        <v>-823.01900000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>72724.906045</v>
+        <v>72724.906044999996</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.201363</v>
+        <v>20.201363000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1772.320000</v>
+        <v>1772.32</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1090.490000</v>
+        <v>-1090.49</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>72736.703421</v>
+        <v>72736.703420999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.204640</v>
+        <v>20.204640000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2188.810000</v>
+        <v>2188.81</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1735.050000</v>
+        <v>-1735.05</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>72564.863919</v>
+        <v>72564.863918999996</v>
       </c>
       <c r="B12" s="1">
         <v>20.156907</v>
       </c>
       <c r="C12" s="1">
-        <v>1150.000000</v>
+        <v>1150</v>
       </c>
       <c r="D12" s="1">
-        <v>-252.028000</v>
+        <v>-252.02799999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>72575.320081</v>
+        <v>72575.320080999998</v>
       </c>
       <c r="G12" s="1">
-        <v>20.159811</v>
+        <v>20.159811000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1170.320000</v>
+        <v>1170.32</v>
       </c>
       <c r="I12" s="1">
-        <v>-212.022000</v>
+        <v>-212.02199999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>72585.826340</v>
+        <v>72585.82634</v>
       </c>
       <c r="L12" s="1">
-        <v>20.162730</v>
+        <v>20.16273</v>
       </c>
       <c r="M12" s="1">
-        <v>1197.820000</v>
+        <v>1197.82</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.970000</v>
+        <v>-148.97</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>72596.116374</v>
+        <v>72596.116374000005</v>
       </c>
       <c r="Q12" s="1">
         <v>20.165588</v>
       </c>
       <c r="R12" s="1">
-        <v>1205.680000</v>
+        <v>1205.68</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.497000</v>
+        <v>-127.497</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>72606.280857</v>
+        <v>72606.280857000005</v>
       </c>
       <c r="V12" s="1">
-        <v>20.168411</v>
+        <v>20.168410999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1213.540000</v>
+        <v>1213.54</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.367000</v>
+        <v>-107.367</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>72616.842508</v>
+        <v>72616.842508000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>20.171345</v>
+        <v>20.171344999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.910000</v>
+        <v>-90.91</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>72627.024045</v>
+        <v>72627.024044999998</v>
       </c>
       <c r="AF12" s="1">
         <v>20.174173</v>
       </c>
       <c r="AG12" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.595700</v>
+        <v>-86.595699999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>72637.863632</v>
+        <v>72637.863631999993</v>
       </c>
       <c r="AK12" s="1">
         <v>20.177184</v>
       </c>
       <c r="AL12" s="1">
-        <v>1233.730000</v>
+        <v>1233.73</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.023200</v>
+        <v>-90.023200000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>72648.678880</v>
+        <v>72648.678880000007</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.180189</v>
+        <v>20.180188999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1241.910000</v>
+        <v>1241.9100000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.963000</v>
+        <v>-101.96299999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>72659.700484</v>
+        <v>72659.700484000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>20.183250</v>
+        <v>20.183250000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1252.030000</v>
+        <v>1252.03</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.297000</v>
+        <v>-121.297</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>72670.618916</v>
+        <v>72670.618916000007</v>
       </c>
       <c r="AZ12" s="1">
         <v>20.186283</v>
       </c>
       <c r="BA12" s="1">
-        <v>1260.630000</v>
+        <v>1260.6300000000001</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.744000</v>
+        <v>-138.744</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>72681.218917</v>
+        <v>72681.218917000006</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.189227</v>
+        <v>20.189226999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1301.320000</v>
+        <v>1301.32</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.344000</v>
+        <v>-220.34399999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>72692.437463</v>
+        <v>72692.437462999995</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.192344</v>
+        <v>20.192343999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1371.640000</v>
+        <v>1371.64</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.749000</v>
+        <v>-355.74900000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>72703.741752</v>
+        <v>72703.741752000002</v>
       </c>
       <c r="BO12" s="1">
         <v>20.195484</v>
       </c>
       <c r="BP12" s="1">
-        <v>1486.860000</v>
+        <v>1486.86</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.448000</v>
+        <v>-575.44799999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>72714.500477</v>
+        <v>72714.500476999994</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.198472</v>
+        <v>20.198471999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1619.150000</v>
+        <v>1619.15</v>
       </c>
       <c r="BV12" s="1">
-        <v>-822.970000</v>
+        <v>-822.97</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>72725.336571</v>
+        <v>72725.336571000007</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.201482</v>
+        <v>20.201481999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1772.450000</v>
+        <v>1772.45</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1090.450000</v>
+        <v>-1090.45</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>72737.256428</v>
+        <v>72737.256427999993</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.204793</v>
+        <v>20.204792999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2190.180000</v>
+        <v>2190.1799999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1734.850000</v>
+        <v>-1734.85</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>72565.530546</v>
+        <v>72565.530545999995</v>
       </c>
       <c r="B13" s="1">
-        <v>20.157092</v>
+        <v>20.157091999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1150.170000</v>
+        <v>1150.17</v>
       </c>
       <c r="D13" s="1">
-        <v>-252.092000</v>
+        <v>-252.09200000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>72575.977777</v>
+        <v>72575.977776999993</v>
       </c>
       <c r="G13" s="1">
-        <v>20.159994</v>
+        <v>20.159994000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1170.610000</v>
+        <v>1170.6099999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-211.992000</v>
+        <v>-211.99199999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>72586.211235</v>
+        <v>72586.211234999995</v>
       </c>
       <c r="L13" s="1">
-        <v>20.162836</v>
+        <v>20.162835999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1197.840000</v>
+        <v>1197.8399999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.828000</v>
+        <v>-148.828</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>72596.462053</v>
+        <v>72596.462052999996</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.165684</v>
+        <v>20.165683999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1205.730000</v>
+        <v>1205.73</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.564000</v>
+        <v>-127.56399999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>72606.625080</v>
+        <v>72606.625079999998</v>
       </c>
       <c r="V13" s="1">
-        <v>20.168507</v>
+        <v>20.168507000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1213.380000</v>
+        <v>1213.3800000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.347000</v>
+        <v>-107.34699999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>72617.187418</v>
+        <v>72617.187418000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>20.171441</v>
+        <v>20.171441000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>1221.430000</v>
+        <v>1221.43</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.855700</v>
+        <v>-90.855699999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>72627.367774</v>
+        <v>72627.367773999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.174269</v>
+        <v>20.174268999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1226.310000</v>
+        <v>1226.31</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.548000</v>
+        <v>-86.548000000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>72638.299599</v>
+        <v>72638.299599000005</v>
       </c>
       <c r="AK13" s="1">
         <v>20.177305</v>
       </c>
       <c r="AL13" s="1">
-        <v>1233.700000</v>
+        <v>1233.7</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.014100</v>
+        <v>-90.014099999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>72648.960640</v>
+        <v>72648.960640000005</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.180267</v>
+        <v>20.180267000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1241.910000</v>
+        <v>1241.9100000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.928000</v>
+        <v>-101.928</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>72659.983203</v>
+        <v>72659.983202999996</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.183329</v>
+        <v>20.183329000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.285000</v>
+        <v>-121.285</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>72670.980500</v>
+        <v>72670.980500000005</v>
       </c>
       <c r="AZ13" s="1">
-        <v>20.186383</v>
+        <v>20.186382999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1260.620000</v>
+        <v>1260.6199999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.739000</v>
+        <v>-138.739</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>72681.579013</v>
+        <v>72681.579012999995</v>
       </c>
       <c r="BE13" s="1">
         <v>20.189328</v>
       </c>
       <c r="BF13" s="1">
-        <v>1301.290000</v>
+        <v>1301.29</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.362000</v>
+        <v>-220.36199999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>72692.816870</v>
+        <v>72692.816869999995</v>
       </c>
       <c r="BJ13" s="1">
         <v>20.192449</v>
       </c>
       <c r="BK13" s="1">
-        <v>1371.630000</v>
+        <v>1371.63</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.748000</v>
+        <v>-355.74799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>72704.163351</v>
+        <v>72704.163350999996</v>
       </c>
       <c r="BO13" s="1">
         <v>20.195601</v>
       </c>
       <c r="BP13" s="1">
-        <v>1486.880000</v>
+        <v>1486.88</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.439000</v>
+        <v>-575.43899999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>72714.926041</v>
+        <v>72714.926040999999</v>
       </c>
       <c r="BT13" s="1">
         <v>20.198591</v>
       </c>
       <c r="BU13" s="1">
-        <v>1619.160000</v>
+        <v>1619.16</v>
       </c>
       <c r="BV13" s="1">
-        <v>-822.904000</v>
+        <v>-822.904</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>72725.753708</v>
+        <v>72725.753708000004</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.201598</v>
+        <v>20.201598000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1772.360000</v>
+        <v>1772.36</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1090.370000</v>
+        <v>-1090.3699999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>72737.785163</v>
+        <v>72737.785162999993</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.204940</v>
+        <v>20.204940000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2188.160000</v>
+        <v>2188.16</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1735.500000</v>
+        <v>-1735.5</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>72565.888654</v>
+        <v>72565.888653999995</v>
       </c>
       <c r="B14" s="1">
-        <v>20.157191</v>
+        <v>20.157191000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.950000</v>
+        <v>1149.95</v>
       </c>
       <c r="D14" s="1">
-        <v>-251.662000</v>
+        <v>-251.66200000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>72576.353248</v>
+        <v>72576.353247999999</v>
       </c>
       <c r="G14" s="1">
-        <v>20.160098</v>
+        <v>20.160098000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1170.470000</v>
+        <v>1170.47</v>
       </c>
       <c r="I14" s="1">
-        <v>-212.771000</v>
+        <v>-212.77099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>72586.554468</v>
+        <v>72586.554468000002</v>
       </c>
       <c r="L14" s="1">
-        <v>20.162932</v>
+        <v>20.162932000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1197.530000</v>
+        <v>1197.53</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.003000</v>
+        <v>-149.00299999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>72596.813221</v>
+        <v>72596.813221000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.165781</v>
+        <v>20.165780999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1205.650000</v>
+        <v>1205.6500000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.581000</v>
+        <v>-127.581</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>72606.968808</v>
+        <v>72606.968808000005</v>
       </c>
       <c r="V14" s="1">
         <v>20.168602</v>
       </c>
       <c r="W14" s="1">
-        <v>1213.340000</v>
+        <v>1213.3399999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.393000</v>
+        <v>-107.393</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>72617.612458</v>
+        <v>72617.612458000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.171559</v>
+        <v>20.171558999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.901800</v>
+        <v>-90.901799999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>72628.061180</v>
+        <v>72628.061180000004</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.174461</v>
+        <v>20.174461000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1226.270000</v>
+        <v>1226.27</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.499200</v>
+        <v>-86.499200000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>72638.569919</v>
+        <v>72638.569919000001</v>
       </c>
       <c r="AK14" s="1">
         <v>20.177381</v>
       </c>
       <c r="AL14" s="1">
-        <v>1233.740000</v>
+        <v>1233.74</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.006500</v>
+        <v>-90.006500000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>72649.324176</v>
+        <v>72649.324175999995</v>
       </c>
       <c r="AP14" s="1">
-        <v>20.180368</v>
+        <v>20.180368000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1241.880000</v>
+        <v>1241.8800000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.957000</v>
+        <v>-101.95699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>72660.344289</v>
+        <v>72660.344289000001</v>
       </c>
       <c r="AU14" s="1">
         <v>20.183429</v>
       </c>
       <c r="AV14" s="1">
-        <v>1252.050000</v>
+        <v>1252.05</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.288000</v>
+        <v>-121.288</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>72671.336627</v>
+        <v>72671.336626999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.186482</v>
+        <v>20.186482000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.743000</v>
+        <v>-138.74299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>72682.302194</v>
+        <v>72682.302194000004</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.189528</v>
+        <v>20.189527999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1301.290000</v>
+        <v>1301.29</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.350000</v>
+        <v>-220.35</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>72693.653139</v>
+        <v>72693.653139000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>20.192681</v>
       </c>
       <c r="BK14" s="1">
-        <v>1371.640000</v>
+        <v>1371.64</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.761000</v>
+        <v>-355.76100000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>72704.560647</v>
+        <v>72704.560647000006</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.195711</v>
+        <v>20.195710999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1486.830000</v>
+        <v>1486.83</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.466000</v>
+        <v>-575.46600000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>72715.333640</v>
+        <v>72715.333639999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>20.198704</v>
+        <v>20.198703999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1619.100000</v>
+        <v>1619.1</v>
       </c>
       <c r="BV14" s="1">
-        <v>-822.796000</v>
+        <v>-822.79600000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>72726.195643</v>
+        <v>72726.195642999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.201721</v>
+        <v>20.201720999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1772.420000</v>
+        <v>1772.42</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1090.420000</v>
+        <v>-1090.42</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>72738.614475</v>
+        <v>72738.614474999995</v>
       </c>
       <c r="CD14" s="1">
         <v>20.205171</v>
       </c>
       <c r="CE14" s="1">
-        <v>2189.030000</v>
+        <v>2189.0300000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1737.380000</v>
+        <v>-1737.38</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>72566.233870</v>
+        <v>72566.233869999996</v>
       </c>
       <c r="B15" s="1">
         <v>20.157287</v>
       </c>
       <c r="C15" s="1">
-        <v>1150.060000</v>
+        <v>1150.06</v>
       </c>
       <c r="D15" s="1">
-        <v>-251.563000</v>
+        <v>-251.56299999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>72576.700944</v>
+        <v>72576.700943999997</v>
       </c>
       <c r="G15" s="1">
-        <v>20.160195</v>
+        <v>20.160195000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>1170.030000</v>
+        <v>1170.03</v>
       </c>
       <c r="I15" s="1">
-        <v>-212.574000</v>
+        <v>-212.57400000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>72586.904675</v>
+        <v>72586.904674999998</v>
       </c>
       <c r="L15" s="1">
-        <v>20.163029</v>
+        <v>20.163029000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1197.550000</v>
+        <v>1197.55</v>
       </c>
       <c r="N15" s="1">
-        <v>-148.854000</v>
+        <v>-148.85400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>72597.250725</v>
+        <v>72597.250725000005</v>
       </c>
       <c r="Q15" s="1">
         <v>20.165903</v>
       </c>
       <c r="R15" s="1">
-        <v>1205.670000</v>
+        <v>1205.67</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.584000</v>
+        <v>-127.584</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>72607.401814</v>
+        <v>72607.401813999997</v>
       </c>
       <c r="V15" s="1">
         <v>20.168723</v>
       </c>
       <c r="W15" s="1">
-        <v>1213.380000</v>
+        <v>1213.3800000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.432000</v>
+        <v>-107.432</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>72617.891242</v>
+        <v>72617.891241999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.171636</v>
+        <v>20.171635999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1221.310000</v>
+        <v>1221.31</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.953300</v>
+        <v>-90.953299999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>72628.413835</v>
+        <v>72628.413834999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>20.174559</v>
+        <v>20.174558999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1226.290000</v>
+        <v>1226.29</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.510500</v>
+        <v>-86.510499999999993</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>72638.921614</v>
+        <v>72638.921614000006</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.177478</v>
+        <v>20.177478000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1233.720000</v>
+        <v>1233.72</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.019200</v>
+        <v>-90.019199999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>72649.680799</v>
+        <v>72649.680798999994</v>
       </c>
       <c r="AP15" s="1">
         <v>20.180467</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1241.860000</v>
+        <v>1241.8599999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.980000</v>
+        <v>-101.98</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>72661.059553</v>
+        <v>72661.059552999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>20.183628</v>
+        <v>20.183627999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1252.030000</v>
+        <v>1252.03</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.280000</v>
+        <v>-121.28</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>72672.054835</v>
+        <v>72672.054835000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>20.186682</v>
+        <v>20.186682000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1260.620000</v>
+        <v>1260.6199999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.738000</v>
+        <v>-138.738</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>72682.688565</v>
+        <v>72682.688565000004</v>
       </c>
       <c r="BE15" s="1">
         <v>20.189636</v>
       </c>
       <c r="BF15" s="1">
-        <v>1301.310000</v>
+        <v>1301.31</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.368000</v>
+        <v>-220.36799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>72693.977013</v>
+        <v>72693.977012999996</v>
       </c>
       <c r="BJ15" s="1">
         <v>20.192771</v>
       </c>
       <c r="BK15" s="1">
-        <v>1371.610000</v>
+        <v>1371.61</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.725000</v>
+        <v>-355.72500000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>72704.982742</v>
+        <v>72704.982741999993</v>
       </c>
       <c r="BO15" s="1">
         <v>20.195829</v>
       </c>
       <c r="BP15" s="1">
-        <v>1486.800000</v>
+        <v>1486.8</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.478000</v>
+        <v>-575.47799999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>72716.084697</v>
+        <v>72716.084696999998</v>
       </c>
       <c r="BT15" s="1">
         <v>20.198912</v>
       </c>
       <c r="BU15" s="1">
-        <v>1619.140000</v>
+        <v>1619.14</v>
       </c>
       <c r="BV15" s="1">
-        <v>-822.607000</v>
+        <v>-822.60699999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>72726.654441</v>
+        <v>72726.654441000006</v>
       </c>
       <c r="BY15" s="1">
-        <v>20.201848</v>
+        <v>20.201847999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1772.290000</v>
+        <v>1772.29</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1090.360000</v>
+        <v>-1090.3599999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>72738.820811</v>
+        <v>72738.820810999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>20.205228</v>
+        <v>20.205228000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>2190.740000</v>
+        <v>2190.7399999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1736.480000</v>
+        <v>-1736.48</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>72566.574125</v>
+        <v>72566.574124999999</v>
       </c>
       <c r="B16" s="1">
-        <v>20.157382</v>
+        <v>20.157381999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1150.350000</v>
+        <v>1150.3499999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-251.772000</v>
+        <v>-251.77199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>72577.045663</v>
+        <v>72577.045662999997</v>
       </c>
       <c r="G16" s="1">
-        <v>20.160290</v>
+        <v>20.16029</v>
       </c>
       <c r="H16" s="1">
-        <v>1170.760000</v>
+        <v>1170.76</v>
       </c>
       <c r="I16" s="1">
-        <v>-212.334000</v>
+        <v>-212.334</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>72587.334214</v>
+        <v>72587.334214000002</v>
       </c>
       <c r="L16" s="1">
         <v>20.163148</v>
       </c>
       <c r="M16" s="1">
-        <v>1197.800000</v>
+        <v>1197.8</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.747000</v>
+        <v>-148.74700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>72597.507633</v>
+        <v>72597.507633000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>20.165974</v>
+        <v>20.165973999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1205.650000</v>
+        <v>1205.6500000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.547000</v>
+        <v>-127.547</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>72607.663704</v>
+        <v>72607.663704000006</v>
       </c>
       <c r="V16" s="1">
-        <v>20.168795</v>
+        <v>20.168794999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1213.500000</v>
+        <v>1213.5</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.232000</v>
+        <v>-107.232</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>72618.239401</v>
+        <v>72618.239400999999</v>
       </c>
       <c r="AA16" s="1">
         <v>20.171733</v>
       </c>
       <c r="AB16" s="1">
-        <v>1221.290000</v>
+        <v>1221.29</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.845200</v>
+        <v>-90.845200000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>72628.757571</v>
+        <v>72628.757570999995</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.174655</v>
+        <v>20.174655000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1226.320000</v>
+        <v>1226.32</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.514700</v>
+        <v>-86.514700000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>72639.267789</v>
+        <v>72639.267789000005</v>
       </c>
       <c r="AK16" s="1">
         <v>20.177574</v>
       </c>
       <c r="AL16" s="1">
-        <v>1233.710000</v>
+        <v>1233.71</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.990200</v>
+        <v>-89.990200000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>72650.404496</v>
+        <v>72650.404496000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>20.180668</v>
+        <v>20.180668000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1241.890000</v>
+        <v>1241.8900000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.976000</v>
+        <v>-101.976</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>72661.440480</v>
+        <v>72661.440480000005</v>
       </c>
       <c r="AU16" s="1">
         <v>20.183733</v>
       </c>
       <c r="AV16" s="1">
-        <v>1252.060000</v>
+        <v>1252.06</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.285000</v>
+        <v>-121.285</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>72672.413937</v>
+        <v>72672.413937000005</v>
       </c>
       <c r="AZ16" s="1">
-        <v>20.186782</v>
+        <v>20.186782000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.730000</v>
+        <v>-138.72999999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>72683.047183</v>
+        <v>72683.047183000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.189735</v>
+        <v>20.189734999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1301.300000</v>
+        <v>1301.3</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.371000</v>
+        <v>-220.37100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>72694.675876</v>
+        <v>72694.675875999994</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.192966</v>
+        <v>20.192965999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1371.630000</v>
+        <v>1371.63</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.708000</v>
+        <v>-355.70800000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>72705.707930</v>
+        <v>72705.707930000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>20.196030</v>
+        <v>20.19603</v>
       </c>
       <c r="BP16" s="1">
-        <v>1486.800000</v>
+        <v>1486.8</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.443000</v>
+        <v>-575.44299999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>72716.194807</v>
+        <v>72716.194807000007</v>
       </c>
       <c r="BT16" s="1">
         <v>20.198943</v>
       </c>
       <c r="BU16" s="1">
-        <v>1619.090000</v>
+        <v>1619.09</v>
       </c>
       <c r="BV16" s="1">
-        <v>-822.521000</v>
+        <v>-822.52099999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>72727.052761</v>
+        <v>72727.052760999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.201959</v>
+        <v>20.201958999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1772.190000</v>
+        <v>1772.19</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1090.550000</v>
+        <v>-1090.55</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>72739.337146</v>
+        <v>72739.337146000005</v>
       </c>
       <c r="CD16" s="1">
         <v>20.205371</v>
       </c>
       <c r="CE16" s="1">
-        <v>2190.900000</v>
+        <v>2190.9</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1736.920000</v>
+        <v>-1736.92</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>72567.007164</v>
+        <v>72567.007163999995</v>
       </c>
       <c r="B17" s="1">
-        <v>20.157502</v>
+        <v>20.157502000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.930000</v>
+        <v>1149.93</v>
       </c>
       <c r="D17" s="1">
-        <v>-251.571000</v>
+        <v>-251.571</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>72577.471231</v>
+        <v>72577.471231000003</v>
       </c>
       <c r="G17" s="1">
-        <v>20.160409</v>
+        <v>20.160409000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1170.800000</v>
+        <v>1170.8</v>
       </c>
       <c r="I17" s="1">
-        <v>-211.784000</v>
+        <v>-211.78399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>72587.607511</v>
+        <v>72587.607510999995</v>
       </c>
       <c r="L17" s="1">
         <v>20.163224</v>
       </c>
       <c r="M17" s="1">
-        <v>1197.640000</v>
+        <v>1197.6400000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-148.705000</v>
+        <v>-148.70500000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>72597.860286</v>
+        <v>72597.860285999996</v>
       </c>
       <c r="Q17" s="1">
         <v>20.166072</v>
       </c>
       <c r="R17" s="1">
-        <v>1205.620000</v>
+        <v>1205.6199999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.537000</v>
+        <v>-127.53700000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>72608.007958</v>
+        <v>72608.007958000002</v>
       </c>
       <c r="V17" s="1">
-        <v>20.168891</v>
+        <v>20.168890999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1213.420000</v>
+        <v>1213.42</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.321000</v>
+        <v>-107.321</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>72618.590600</v>
+        <v>72618.590599999996</v>
       </c>
       <c r="AA17" s="1">
-        <v>20.171831</v>
+        <v>20.171831000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1221.420000</v>
+        <v>1221.42</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.796700</v>
+        <v>-90.796700000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>72629.444026</v>
+        <v>72629.444025999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.174846</v>
+        <v>20.174845999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1226.400000</v>
+        <v>1226.4000000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.482600</v>
+        <v>-86.482600000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>72639.965198</v>
+        <v>72639.965198000005</v>
       </c>
       <c r="AK17" s="1">
         <v>20.177768</v>
       </c>
       <c r="AL17" s="1">
-        <v>1233.740000</v>
+        <v>1233.74</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.023200</v>
+        <v>-90.023200000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>72650.764063</v>
+        <v>72650.764062999995</v>
       </c>
       <c r="AP17" s="1">
         <v>20.180768</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1241.890000</v>
+        <v>1241.8900000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.968000</v>
+        <v>-101.968</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>72661.803023</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.183834</v>
+        <v>20.183834000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1252.060000</v>
+        <v>1252.06</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.276000</v>
+        <v>-121.276</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>72672.774033</v>
+        <v>72672.774032999994</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.186882</v>
+        <v>20.186882000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1260.630000</v>
+        <v>1260.6300000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.743000</v>
+        <v>-138.74299999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>72683.711810</v>
+        <v>72683.711809999993</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.189920</v>
+        <v>20.189920000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1301.340000</v>
+        <v>1301.3399999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.370000</v>
+        <v>-220.37</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>72695.102931</v>
+        <v>72695.102931000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.193084</v>
+        <v>20.193083999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1371.610000</v>
+        <v>1371.61</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.758000</v>
+        <v>-355.75799999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>72705.827467</v>
+        <v>72705.827466999996</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.196063</v>
+        <v>20.196062999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1486.810000</v>
+        <v>1486.81</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.454000</v>
+        <v>-575.45399999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>72716.633272</v>
+        <v>72716.633272000006</v>
       </c>
       <c r="BT17" s="1">
-        <v>20.199065</v>
+        <v>20.199065000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1619.160000</v>
+        <v>1619.16</v>
       </c>
       <c r="BV17" s="1">
-        <v>-822.439000</v>
+        <v>-822.43899999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>72727.491688</v>
+        <v>72727.491687999995</v>
       </c>
       <c r="BY17" s="1">
         <v>20.202081</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1772.260000</v>
+        <v>1772.26</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1090.480000</v>
+        <v>-1090.48</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>72739.890186</v>
+        <v>72739.890186000004</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.205525</v>
+        <v>20.205525000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2189.170000</v>
+        <v>2189.17</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1737.530000</v>
+        <v>-1737.53</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>72567.273981</v>
+        <v>72567.273981000006</v>
       </c>
       <c r="B18" s="1">
-        <v>20.157576</v>
+        <v>20.157575999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.790000</v>
+        <v>1149.79</v>
       </c>
       <c r="D18" s="1">
-        <v>-251.767000</v>
+        <v>-251.767</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>72577.765358</v>
+        <v>72577.765358000004</v>
       </c>
       <c r="G18" s="1">
-        <v>20.160490</v>
+        <v>20.160489999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1170.950000</v>
+        <v>1170.95</v>
       </c>
       <c r="I18" s="1">
-        <v>-212.161000</v>
+        <v>-212.161</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>72587.954176</v>
+        <v>72587.954175999999</v>
       </c>
       <c r="L18" s="1">
         <v>20.163321</v>
       </c>
       <c r="M18" s="1">
-        <v>1197.640000</v>
+        <v>1197.6400000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-148.864000</v>
+        <v>-148.864</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>72598.207971</v>
+        <v>72598.207970999996</v>
       </c>
       <c r="Q18" s="1">
         <v>20.166169</v>
       </c>
       <c r="R18" s="1">
-        <v>1205.700000</v>
+        <v>1205.7</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.560000</v>
+        <v>-127.56</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>72608.350694</v>
+        <v>72608.350693999993</v>
       </c>
       <c r="V18" s="1">
         <v>20.168986</v>
       </c>
       <c r="W18" s="1">
-        <v>1213.320000</v>
+        <v>1213.32</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.442000</v>
+        <v>-107.44199999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>72619.280503</v>
+        <v>72619.280503000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.172022</v>
+        <v>20.172021999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1221.380000</v>
+        <v>1221.3800000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.897100</v>
+        <v>-90.897099999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>72629.789241</v>
+        <v>72629.789241000006</v>
       </c>
       <c r="AF18" s="1">
         <v>20.174941</v>
       </c>
       <c r="AG18" s="1">
-        <v>1226.290000</v>
+        <v>1226.29</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.636800</v>
+        <v>-86.636799999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>72640.313853</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.177865</v>
+        <v>20.177865000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1233.680000</v>
+        <v>1233.68</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.994600</v>
+        <v>-89.994600000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>72651.125149</v>
@@ -4713,180 +5129,180 @@
         <v>20.180868</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1241.900000</v>
+        <v>1241.9000000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.941000</v>
+        <v>-101.941</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>72662.483070</v>
+        <v>72662.483070000002</v>
       </c>
       <c r="AU18" s="1">
         <v>20.184023</v>
       </c>
       <c r="AV18" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.281000</v>
+        <v>-121.28100000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>72673.450080</v>
+        <v>72673.450079999995</v>
       </c>
       <c r="AZ18" s="1">
-        <v>20.187069</v>
+        <v>20.187069000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.717000</v>
+        <v>-138.71700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>72684.164162</v>
+        <v>72684.164162000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.190046</v>
+        <v>20.190045999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1301.290000</v>
+        <v>1301.29</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.345000</v>
+        <v>-220.345</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>72695.480388</v>
+        <v>72695.480387999996</v>
       </c>
       <c r="BJ18" s="1">
         <v>20.193189</v>
       </c>
       <c r="BK18" s="1">
-        <v>1371.660000</v>
+        <v>1371.66</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.763000</v>
+        <v>-355.76299999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>72706.222741</v>
+        <v>72706.222741000005</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.196173</v>
+        <v>20.196173000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1486.840000</v>
+        <v>1486.84</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.454000</v>
+        <v>-575.45399999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>72717.046968</v>
+        <v>72717.046967999995</v>
       </c>
       <c r="BT18" s="1">
-        <v>20.199180</v>
+        <v>20.199179999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1619.240000</v>
+        <v>1619.24</v>
       </c>
       <c r="BV18" s="1">
-        <v>-822.342000</v>
+        <v>-822.34199999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>72727.929193</v>
+        <v>72727.929193000004</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.202203</v>
+        <v>20.202203000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1772.360000</v>
+        <v>1772.36</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1090.440000</v>
+        <v>-1090.44</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>72740.418434</v>
+        <v>72740.418434000007</v>
       </c>
       <c r="CD18" s="1">
         <v>20.205672</v>
       </c>
       <c r="CE18" s="1">
-        <v>2190.870000</v>
+        <v>2190.87</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1736.610000</v>
+        <v>-1736.61</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>72567.617708</v>
+        <v>72567.617708000005</v>
       </c>
       <c r="B19" s="1">
-        <v>20.157672</v>
+        <v>20.157672000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1150.160000</v>
+        <v>1150.1600000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-251.730000</v>
+        <v>-251.73</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>72578.110078</v>
+        <v>72578.110077999998</v>
       </c>
       <c r="G19" s="1">
-        <v>20.160586</v>
+        <v>20.160585999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1170.850000</v>
+        <v>1170.8499999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-212.223000</v>
+        <v>-212.22300000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>72588.300882</v>
+        <v>72588.300881999996</v>
       </c>
       <c r="L19" s="1">
-        <v>20.163417</v>
+        <v>20.163416999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1197.770000</v>
+        <v>1197.77</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.755000</v>
+        <v>-148.755</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>72598.905843</v>
@@ -4895,405 +5311,405 @@
         <v>20.166363</v>
       </c>
       <c r="R19" s="1">
-        <v>1205.700000</v>
+        <v>1205.7</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.534000</v>
+        <v>-127.53400000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>72609.038612</v>
+        <v>72609.038612000004</v>
       </c>
       <c r="V19" s="1">
-        <v>20.169177</v>
+        <v>20.169177000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1213.190000</v>
+        <v>1213.19</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.317000</v>
+        <v>-107.31699999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>72619.632167</v>
+        <v>72619.632167000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.172120</v>
+        <v>20.17212</v>
       </c>
       <c r="AB19" s="1">
-        <v>1221.360000</v>
+        <v>1221.3599999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.920900</v>
+        <v>-90.920900000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>72630.131521</v>
+        <v>72630.131521000003</v>
       </c>
       <c r="AF19" s="1">
         <v>20.175037</v>
       </c>
       <c r="AG19" s="1">
-        <v>1226.280000</v>
+        <v>1226.28</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.547100</v>
+        <v>-86.5471</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>72640.661051</v>
+        <v>72640.661051000003</v>
       </c>
       <c r="AK19" s="1">
         <v>20.177961</v>
       </c>
       <c r="AL19" s="1">
-        <v>1233.710000</v>
+        <v>1233.71</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.043800</v>
+        <v>-90.043800000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>72651.810620</v>
+        <v>72651.810620000004</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.181059</v>
+        <v>20.181059000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1241.870000</v>
+        <v>1241.8699999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.985000</v>
+        <v>-101.985</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>72662.898221</v>
+        <v>72662.898220999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.184138</v>
+        <v>20.184138000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1252.050000</v>
+        <v>1252.05</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.297000</v>
+        <v>-121.297</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>72673.872671</v>
+        <v>72673.872671000005</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.187187</v>
+        <v>20.187187000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.733000</v>
+        <v>-138.733</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>72684.524753</v>
+        <v>72684.524753000005</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.190146</v>
+        <v>20.190145999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1301.310000</v>
+        <v>1301.31</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.333000</v>
+        <v>-220.333</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>72695.850898</v>
+        <v>72695.850898000004</v>
       </c>
       <c r="BJ19" s="1">
         <v>20.193292</v>
       </c>
       <c r="BK19" s="1">
-        <v>1371.640000</v>
+        <v>1371.64</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.743000</v>
+        <v>-355.74299999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>72706.617558</v>
+        <v>72706.617557999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.196283</v>
+        <v>20.196283000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1486.870000</v>
+        <v>1486.87</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.477000</v>
+        <v>-575.47699999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>72717.474981</v>
+        <v>72717.474981000007</v>
       </c>
       <c r="BT19" s="1">
         <v>20.199299</v>
       </c>
       <c r="BU19" s="1">
-        <v>1619.340000</v>
+        <v>1619.34</v>
       </c>
       <c r="BV19" s="1">
-        <v>-822.300000</v>
+        <v>-822.3</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>72728.345799</v>
+        <v>72728.345799000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.202318</v>
+        <v>20.202318000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1772.130000</v>
+        <v>1772.13</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1090.380000</v>
+        <v>-1090.3800000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>72740.939224</v>
+        <v>72740.939224000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.205816</v>
+        <v>20.205815999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2188.130000</v>
+        <v>2188.13</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1735.090000</v>
+        <v>-1735.09</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>72567.959451</v>
+        <v>72567.959451000002</v>
       </c>
       <c r="B20" s="1">
         <v>20.157767</v>
       </c>
       <c r="C20" s="1">
-        <v>1150.040000</v>
+        <v>1150.04</v>
       </c>
       <c r="D20" s="1">
-        <v>-251.945000</v>
+        <v>-251.94499999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>72578.796541</v>
+        <v>72578.796541000003</v>
       </c>
       <c r="G20" s="1">
         <v>20.160777</v>
       </c>
       <c r="H20" s="1">
-        <v>1170.840000</v>
+        <v>1170.8399999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-211.139000</v>
+        <v>-211.13900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>72588.991807</v>
+        <v>72588.991806999999</v>
       </c>
       <c r="L20" s="1">
-        <v>20.163609</v>
+        <v>20.163609000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1197.820000</v>
+        <v>1197.82</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.774000</v>
+        <v>-148.774</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>72599.253570</v>
+        <v>72599.253570000001</v>
       </c>
       <c r="Q20" s="1">
         <v>20.166459</v>
       </c>
       <c r="R20" s="1">
-        <v>1205.720000</v>
+        <v>1205.72</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.576000</v>
+        <v>-127.57599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>72609.381882</v>
+        <v>72609.381882000001</v>
       </c>
       <c r="V20" s="1">
         <v>20.169273</v>
       </c>
       <c r="W20" s="1">
-        <v>1213.430000</v>
+        <v>1213.43</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.325000</v>
+        <v>-107.325</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>72619.983830</v>
+        <v>72619.983829999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.172218</v>
+        <v>20.172218000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1221.380000</v>
+        <v>1221.3800000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.906300</v>
+        <v>-90.906300000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>72630.794138</v>
+        <v>72630.794137999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.175221</v>
+        <v>20.175221000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1226.300000</v>
+        <v>1226.3</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.493500</v>
+        <v>-86.493499999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>72641.328703</v>
+        <v>72641.328703000006</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.178147</v>
+        <v>20.178146999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1233.710000</v>
+        <v>1233.71</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.025900</v>
+        <v>-90.025899999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>72652.231762</v>
+        <v>72652.231761999996</v>
       </c>
       <c r="AP20" s="1">
         <v>20.181175</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1241.880000</v>
+        <v>1241.8800000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.983000</v>
+        <v>-101.983</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>72663.261294</v>
+        <v>72663.261293999996</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.184239</v>
+        <v>20.184239000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.280000</v>
+        <v>-121.28</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>72674.251615</v>
+        <v>72674.251615000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.187292</v>
+        <v>20.187291999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1260.620000</v>
+        <v>1260.6199999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.736000</v>
+        <v>-138.73599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>72684.888354</v>
+        <v>72684.888353999995</v>
       </c>
       <c r="BE20" s="1">
-        <v>20.190247</v>
+        <v>20.190246999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1301.290000</v>
+        <v>1301.29</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.352000</v>
+        <v>-220.352</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>72696.297334</v>
+        <v>72696.297334000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>20.193416</v>
+        <v>20.193415999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1371.600000</v>
+        <v>1371.6</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.736000</v>
+        <v>-355.73599999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>72707.049604</v>
@@ -5302,210 +5718,210 @@
         <v>20.196403</v>
       </c>
       <c r="BP20" s="1">
-        <v>1486.820000</v>
+        <v>1486.82</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.456000</v>
+        <v>-575.45600000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>72717.904554</v>
+        <v>72717.904553999993</v>
       </c>
       <c r="BT20" s="1">
-        <v>20.199418</v>
+        <v>20.199418000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1619.430000</v>
+        <v>1619.43</v>
       </c>
       <c r="BV20" s="1">
-        <v>-822.229000</v>
+        <v>-822.22900000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>72728.792696</v>
+        <v>72728.792696000004</v>
       </c>
       <c r="BY20" s="1">
-        <v>20.202442</v>
+        <v>20.202442000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1772.310000</v>
+        <v>1772.31</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1090.550000</v>
+        <v>-1090.55</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>72741.477880</v>
+        <v>72741.477880000006</v>
       </c>
       <c r="CD20" s="1">
         <v>20.205966</v>
       </c>
       <c r="CE20" s="1">
-        <v>2189.850000</v>
+        <v>2189.85</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1737.350000</v>
+        <v>-1737.35</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>72568.640956</v>
+        <v>72568.640956000003</v>
       </c>
       <c r="B21" s="1">
-        <v>20.157956</v>
+        <v>20.157955999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1150.090000</v>
+        <v>1150.0899999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-251.735000</v>
+        <v>-251.73500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>72579.139278</v>
+        <v>72579.139278000002</v>
       </c>
       <c r="G21" s="1">
-        <v>20.160872</v>
+        <v>20.160872000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1170.850000</v>
+        <v>1170.8499999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-211.976000</v>
+        <v>-211.976</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>72589.344476</v>
+        <v>72589.344475999998</v>
       </c>
       <c r="L21" s="1">
-        <v>20.163707</v>
+        <v>20.163706999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1197.490000</v>
+        <v>1197.49</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.632000</v>
+        <v>-148.63200000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>72599.606226</v>
+        <v>72599.606226000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.166557</v>
+        <v>20.166557000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1205.710000</v>
+        <v>1205.71</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.621000</v>
+        <v>-127.621</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>72609.726348</v>
+        <v>72609.726347999997</v>
       </c>
       <c r="V21" s="1">
-        <v>20.169368</v>
+        <v>20.169367999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1213.300000</v>
+        <v>1213.3</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.383000</v>
+        <v>-107.383</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>72620.644005</v>
+        <v>72620.644004999995</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.172401</v>
+        <v>20.172401000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.991300</v>
+        <v>-90.991299999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>72631.162664</v>
+        <v>72631.162664000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.175323</v>
+        <v>20.175322999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1226.230000</v>
+        <v>1226.23</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.530100</v>
+        <v>-86.530100000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>72641.710618</v>
+        <v>72641.710617999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>20.178253</v>
+        <v>20.178253000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>1233.700000</v>
+        <v>1233.7</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.014800</v>
+        <v>-90.014799999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>72652.593307</v>
+        <v>72652.593307000003</v>
       </c>
       <c r="AP21" s="1">
         <v>20.181276</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1241.850000</v>
+        <v>1241.8499999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.974000</v>
+        <v>-101.974</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>72663.626318</v>
+        <v>72663.626317999995</v>
       </c>
       <c r="AU21" s="1">
         <v>20.184341</v>
       </c>
       <c r="AV21" s="1">
-        <v>1252.060000</v>
+        <v>1252.06</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.294000</v>
+        <v>-121.294</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>72674.613696</v>
@@ -5514,587 +5930,587 @@
         <v>20.187393</v>
       </c>
       <c r="BA21" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.743000</v>
+        <v>-138.74299999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>72685.320337</v>
+        <v>72685.320336999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>20.190367</v>
+        <v>20.190366999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1301.310000</v>
+        <v>1301.31</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.339000</v>
+        <v>-220.339</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>72696.626643</v>
+        <v>72696.626642999996</v>
       </c>
       <c r="BJ21" s="1">
         <v>20.193507</v>
       </c>
       <c r="BK21" s="1">
-        <v>1371.600000</v>
+        <v>1371.6</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.749000</v>
+        <v>-355.74900000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>72707.440915</v>
+        <v>72707.440914999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>20.196511</v>
+        <v>20.196511000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1486.810000</v>
+        <v>1486.81</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.463000</v>
+        <v>-575.46299999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>72718.317684</v>
+        <v>72718.317683999994</v>
       </c>
       <c r="BT21" s="1">
-        <v>20.199533</v>
+        <v>20.199532999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1619.610000</v>
+        <v>1619.61</v>
       </c>
       <c r="BV21" s="1">
-        <v>-822.200000</v>
+        <v>-822.2</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>72729.225702</v>
+        <v>72729.225701999996</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.202563</v>
+        <v>20.202563000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1772.330000</v>
+        <v>1772.33</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1090.490000</v>
+        <v>-1090.49</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>72742.021037</v>
+        <v>72742.021036999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>20.206117</v>
+        <v>20.206116999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2190.040000</v>
+        <v>2190.04</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1734.820000</v>
+        <v>-1734.82</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>72568.985178</v>
+        <v>72568.985178000003</v>
       </c>
       <c r="B22" s="1">
         <v>20.158051</v>
       </c>
       <c r="C22" s="1">
-        <v>1150.550000</v>
+        <v>1150.55</v>
       </c>
       <c r="D22" s="1">
-        <v>-251.766000</v>
+        <v>-251.76599999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>72579.484989</v>
+        <v>72579.484989000004</v>
       </c>
       <c r="G22" s="1">
         <v>20.160968</v>
       </c>
       <c r="H22" s="1">
-        <v>1170.580000</v>
+        <v>1170.58</v>
       </c>
       <c r="I22" s="1">
-        <v>-212.277000</v>
+        <v>-212.27699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>72589.687726</v>
+        <v>72589.687726000004</v>
       </c>
       <c r="L22" s="1">
         <v>20.163802</v>
       </c>
       <c r="M22" s="1">
-        <v>1197.460000</v>
+        <v>1197.46</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.756000</v>
+        <v>-148.756</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>72600.270860</v>
+        <v>72600.270860000004</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.166742</v>
+        <v>20.166741999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1205.600000</v>
+        <v>1205.5999999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.496000</v>
+        <v>-127.496</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>72610.398643</v>
+        <v>72610.398642999993</v>
       </c>
       <c r="V22" s="1">
-        <v>20.169555</v>
+        <v>20.169554999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1213.340000</v>
+        <v>1213.3399999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.376000</v>
+        <v>-107.376</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>72621.030921</v>
+        <v>72621.030920999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.172509</v>
+        <v>20.172509000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1221.310000</v>
+        <v>1221.31</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.915800</v>
+        <v>-90.915800000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>72631.507886</v>
+        <v>72631.507886000007</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.175419</v>
+        <v>20.175419000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>1226.190000</v>
+        <v>1226.19</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.528100</v>
+        <v>-86.528099999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>72642.060761</v>
+        <v>72642.060761000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.178350</v>
+        <v>20.178349999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>1233.730000</v>
+        <v>1233.73</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.994600</v>
+        <v>-89.994600000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>72652.953435</v>
+        <v>72652.953435000003</v>
       </c>
       <c r="AP22" s="1">
         <v>20.181376</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1241.850000</v>
+        <v>1241.8499999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.974000</v>
+        <v>-101.974</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>72664.054901</v>
+        <v>72664.054900999996</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.184460</v>
+        <v>20.184460000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1252.060000</v>
+        <v>1252.06</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.295000</v>
+        <v>-121.295</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>72675.051167</v>
+        <v>72675.051166999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>20.187514</v>
       </c>
       <c r="BA22" s="1">
-        <v>1260.630000</v>
+        <v>1260.6300000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.729000</v>
+        <v>-138.72900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>72685.611487</v>
+        <v>72685.611487000002</v>
       </c>
       <c r="BE22" s="1">
         <v>20.190448</v>
       </c>
       <c r="BF22" s="1">
-        <v>1301.290000</v>
+        <v>1301.29</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.350000</v>
+        <v>-220.35</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>72697.002610</v>
+        <v>72697.002609999996</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.193612</v>
+        <v>20.193612000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1371.630000</v>
+        <v>1371.63</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.783000</v>
+        <v>-355.78300000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>72707.857587</v>
+        <v>72707.857587000006</v>
       </c>
       <c r="BO22" s="1">
-        <v>20.196627</v>
+        <v>20.196626999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1486.820000</v>
+        <v>1486.82</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.448000</v>
+        <v>-575.44799999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>72718.747716</v>
+        <v>72718.747715999998</v>
       </c>
       <c r="BT22" s="1">
         <v>20.199652</v>
       </c>
       <c r="BU22" s="1">
-        <v>1619.660000</v>
+        <v>1619.66</v>
       </c>
       <c r="BV22" s="1">
-        <v>-822.230000</v>
+        <v>-822.23</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>72729.653749</v>
+        <v>72729.653749000005</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.202682</v>
+        <v>20.202681999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1772.510000</v>
+        <v>1772.51</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1090.370000</v>
+        <v>-1090.3699999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>72742.590901</v>
+        <v>72742.590901000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.206275</v>
+        <v>20.206275000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>2190.250000</v>
+        <v>2190.25</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1737.390000</v>
+        <v>-1737.39</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>72569.326922</v>
+        <v>72569.326921999993</v>
       </c>
       <c r="B23" s="1">
-        <v>20.158146</v>
+        <v>20.158145999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.810000</v>
+        <v>1149.81</v>
       </c>
       <c r="D23" s="1">
-        <v>-251.512000</v>
+        <v>-251.512</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>72580.146651</v>
+        <v>72580.146651000003</v>
       </c>
       <c r="G23" s="1">
-        <v>20.161152</v>
+        <v>20.161152000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1170.150000</v>
+        <v>1170.1500000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-212.149000</v>
+        <v>-212.149</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>72590.351838</v>
+        <v>72590.351838000002</v>
       </c>
       <c r="L23" s="1">
-        <v>20.163987</v>
+        <v>20.163986999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1197.790000</v>
+        <v>1197.79</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.948000</v>
+        <v>-148.94800000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>72600.649777</v>
+        <v>72600.649776999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.166847</v>
+        <v>20.166847000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1205.720000</v>
+        <v>1205.72</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.475000</v>
+        <v>-127.47499999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>72610.767170</v>
+        <v>72610.767170000006</v>
       </c>
       <c r="V23" s="1">
-        <v>20.169658</v>
+        <v>20.169657999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>1213.220000</v>
+        <v>1213.22</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.293000</v>
+        <v>-107.29300000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>72621.378613</v>
+        <v>72621.378612999993</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.172605</v>
+        <v>20.172605000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.836700</v>
+        <v>-90.836699999999993</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>72631.849623</v>
+        <v>72631.849623000002</v>
       </c>
       <c r="AF23" s="1">
         <v>20.175514</v>
       </c>
       <c r="AG23" s="1">
-        <v>1226.330000</v>
+        <v>1226.33</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.491300</v>
+        <v>-86.491299999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>72642.414905</v>
+        <v>72642.414904999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>20.178449</v>
+        <v>20.178449000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1233.710000</v>
+        <v>1233.71</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.010200</v>
+        <v>-90.010199999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>72653.383468</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.181495</v>
+        <v>20.181495000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1241.850000</v>
+        <v>1241.8499999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.949000</v>
+        <v>-101.949</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>72664.355437</v>
+        <v>72664.355437000006</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.184543</v>
+        <v>20.184543000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1252.050000</v>
+        <v>1252.05</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.323000</v>
+        <v>-121.32299999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>72675.330413</v>
+        <v>72675.330413000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.187592</v>
+        <v>20.187591999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1260.590000</v>
+        <v>1260.5899999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.714000</v>
+        <v>-138.714</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>72685.970624</v>
+        <v>72685.970623999994</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.190547</v>
+        <v>20.190546999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1301.300000</v>
+        <v>1301.3</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.332000</v>
+        <v>-220.33199999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>72697.379568</v>
+        <v>72697.379568000004</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.193717</v>
+        <v>20.193716999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1371.630000</v>
+        <v>1371.63</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.747000</v>
+        <v>-355.74700000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>72708.252898</v>
+        <v>72708.252898000006</v>
       </c>
       <c r="BO23" s="1">
-        <v>20.196737</v>
+        <v>20.196736999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1486.820000</v>
+        <v>1486.82</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.410000</v>
+        <v>-575.41</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>72719.176768</v>
+        <v>72719.176768000005</v>
       </c>
       <c r="BT23" s="1">
-        <v>20.199771</v>
+        <v>20.199770999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1619.720000</v>
+        <v>1619.72</v>
       </c>
       <c r="BV23" s="1">
-        <v>-822.263000</v>
+        <v>-822.26300000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>72730.070389</v>
@@ -6103,801 +6519,802 @@
         <v>20.202797</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1772.300000</v>
+        <v>1772.3</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1090.260000</v>
+        <v>-1090.26</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>72743.095332</v>
+        <v>72743.095331999997</v>
       </c>
       <c r="CD23" s="1">
         <v>20.206415</v>
       </c>
       <c r="CE23" s="1">
-        <v>2189.850000</v>
+        <v>2189.85</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1737.160000</v>
+        <v>-1737.16</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>72569.984616</v>
+        <v>72569.984616000002</v>
       </c>
       <c r="B24" s="1">
-        <v>20.158329</v>
+        <v>20.158328999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.920000</v>
+        <v>1149.92</v>
       </c>
       <c r="D24" s="1">
-        <v>-251.771000</v>
+        <v>-251.77099999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>72580.517691</v>
+        <v>72580.517691000001</v>
       </c>
       <c r="G24" s="1">
-        <v>20.161255</v>
+        <v>20.161255000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1170.310000</v>
+        <v>1170.31</v>
       </c>
       <c r="I24" s="1">
-        <v>-211.986000</v>
+        <v>-211.98599999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>72590.727309</v>
+        <v>72590.727308999994</v>
       </c>
       <c r="L24" s="1">
-        <v>20.164091</v>
+        <v>20.164090999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1197.850000</v>
+        <v>1197.8499999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.451000</v>
+        <v>-148.45099999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>72600.999983</v>
+        <v>72600.999983000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>20.166944</v>
+        <v>20.166944000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1205.690000</v>
+        <v>1205.69</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.509000</v>
+        <v>-127.509</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>72611.139171</v>
+        <v>72611.139171000003</v>
       </c>
       <c r="V24" s="1">
-        <v>20.169761</v>
+        <v>20.169761000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1213.310000</v>
+        <v>1213.31</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.294000</v>
+        <v>-107.294</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>72621.726313</v>
+        <v>72621.726313000006</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.172702</v>
+        <v>20.172702000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1221.330000</v>
+        <v>1221.33</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.888500</v>
+        <v>-90.888499999999993</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>72632.274571</v>
+        <v>72632.274571000002</v>
       </c>
       <c r="AF24" s="1">
         <v>20.175632</v>
       </c>
       <c r="AG24" s="1">
-        <v>1226.260000</v>
+        <v>1226.26</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.615000</v>
+        <v>-86.614999999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>72642.848409</v>
+        <v>72642.848408999998</v>
       </c>
       <c r="AK24" s="1">
         <v>20.178569</v>
       </c>
       <c r="AL24" s="1">
-        <v>1233.720000</v>
+        <v>1233.72</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.988700</v>
+        <v>-89.988699999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>72653.673098</v>
+        <v>72653.673097999999</v>
       </c>
       <c r="AP24" s="1">
         <v>20.181576</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1241.880000</v>
+        <v>1241.8800000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.975000</v>
+        <v>-101.97499999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>72664.720026</v>
+        <v>72664.720025999995</v>
       </c>
       <c r="AU24" s="1">
-        <v>20.184644</v>
+        <v>20.184643999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.293000</v>
+        <v>-121.29300000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>72675.691005</v>
+        <v>72675.691005000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.187692</v>
+        <v>20.187691999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1260.620000</v>
+        <v>1260.6199999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.741000</v>
+        <v>-138.74100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>72686.333168</v>
+        <v>72686.333167999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.190648</v>
+        <v>20.190647999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1301.300000</v>
+        <v>1301.3</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.366000</v>
+        <v>-220.36600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>72698.131503</v>
+        <v>72698.131502999997</v>
       </c>
       <c r="BJ24" s="1">
         <v>20.193925</v>
       </c>
       <c r="BK24" s="1">
-        <v>1371.620000</v>
+        <v>1371.62</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.732000</v>
+        <v>-355.73200000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>72708.678434</v>
+        <v>72708.678434000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.196855</v>
+        <v>20.196854999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1486.800000</v>
+        <v>1486.8</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.466000</v>
+        <v>-575.46600000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>72719.590452</v>
+        <v>72719.590452000004</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.199886</v>
+        <v>20.199885999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1619.860000</v>
+        <v>1619.86</v>
       </c>
       <c r="BV24" s="1">
-        <v>-822.293000</v>
+        <v>-822.29300000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>72730.492484</v>
+        <v>72730.492484000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.202915</v>
+        <v>20.202915000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1772.220000</v>
+        <v>1772.22</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1090.410000</v>
+        <v>-1090.4100000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>72743.929635</v>
+        <v>72743.929634999993</v>
       </c>
       <c r="CD24" s="1">
         <v>20.206647</v>
       </c>
       <c r="CE24" s="1">
-        <v>2190.410000</v>
+        <v>2190.41</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1735.550000</v>
+        <v>-1735.55</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>72570.352154</v>
+        <v>72570.352153999993</v>
       </c>
       <c r="B25" s="1">
         <v>20.158431</v>
       </c>
       <c r="C25" s="1">
-        <v>1150.220000</v>
+        <v>1150.22</v>
       </c>
       <c r="D25" s="1">
-        <v>-251.774000</v>
+        <v>-251.774</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>72580.863370</v>
+        <v>72580.863370000006</v>
       </c>
       <c r="G25" s="1">
         <v>20.161351</v>
       </c>
       <c r="H25" s="1">
-        <v>1170.580000</v>
+        <v>1170.58</v>
       </c>
       <c r="I25" s="1">
-        <v>-211.741000</v>
+        <v>-211.74100000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>72591.070044</v>
+        <v>72591.070043999993</v>
       </c>
       <c r="L25" s="1">
-        <v>20.164186</v>
+        <v>20.164186000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1197.730000</v>
+        <v>1197.73</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.764000</v>
+        <v>-148.76400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>72601.350127</v>
+        <v>72601.350126999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.167042</v>
+        <v>20.167041999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1205.680000</v>
+        <v>1205.68</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.592000</v>
+        <v>-127.592</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>72611.777026</v>
+        <v>72611.777025999996</v>
       </c>
       <c r="V25" s="1">
-        <v>20.169938</v>
+        <v>20.169937999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.432000</v>
+        <v>-107.432</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>72622.174660</v>
+        <v>72622.174660000004</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.172826</v>
+        <v>20.172826000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.924900</v>
+        <v>-90.924899999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>72632.538102</v>
+        <v>72632.538102000006</v>
       </c>
       <c r="AF25" s="1">
-        <v>20.175705</v>
+        <v>20.175705000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1226.310000</v>
+        <v>1226.31</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.580300</v>
+        <v>-86.580299999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>72643.116744</v>
+        <v>72643.116743999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>20.178644</v>
+        <v>20.178643999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1233.720000</v>
+        <v>1233.72</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.014800</v>
+        <v>-90.014799999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>72654.033689</v>
+        <v>72654.033689000004</v>
       </c>
       <c r="AP25" s="1">
         <v>20.181676</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1241.870000</v>
+        <v>1241.8699999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.999000</v>
+        <v>-101.999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>72665.085548</v>
+        <v>72665.085548000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>20.184746</v>
+        <v>20.184746000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1252.060000</v>
+        <v>1252.06</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.290000</v>
+        <v>-121.29</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>72676.048156</v>
+        <v>72676.048156000004</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.187791</v>
+        <v>20.187791000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1260.630000</v>
+        <v>1260.6300000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.733000</v>
+        <v>-138.733</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>72687.054879</v>
+        <v>72687.054879000003</v>
       </c>
       <c r="BE25" s="1">
         <v>20.190849</v>
       </c>
       <c r="BF25" s="1">
-        <v>1301.310000</v>
+        <v>1301.31</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.370000</v>
+        <v>-220.37</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>72698.504007</v>
+        <v>72698.504006999996</v>
       </c>
       <c r="BJ25" s="1">
         <v>20.194029</v>
       </c>
       <c r="BK25" s="1">
-        <v>1371.590000</v>
+        <v>1371.59</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.739000</v>
+        <v>-355.73899999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>72709.071265</v>
+        <v>72709.071265000006</v>
       </c>
       <c r="BO25" s="1">
-        <v>20.196964</v>
+        <v>20.196964000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1486.760000</v>
+        <v>1486.76</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.447000</v>
+        <v>-575.447</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>72720.018962</v>
+        <v>72720.018962000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.200005</v>
+        <v>20.200005000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1619.860000</v>
+        <v>1619.86</v>
       </c>
       <c r="BV25" s="1">
-        <v>-822.367000</v>
+        <v>-822.36699999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>72731.240949</v>
+        <v>72731.240948999999</v>
       </c>
       <c r="BY25" s="1">
         <v>20.203122</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1772.290000</v>
+        <v>1772.29</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1090.530000</v>
+        <v>-1090.53</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>72744.167682</v>
+        <v>72744.167681999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.206713</v>
+        <v>20.206713000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2188.410000</v>
+        <v>2188.41</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1735.900000</v>
+        <v>-1735.9</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>72570.694391</v>
+        <v>72570.694390999997</v>
       </c>
       <c r="B26" s="1">
-        <v>20.158526</v>
+        <v>20.158525999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>1150.080000</v>
+        <v>1150.08</v>
       </c>
       <c r="D26" s="1">
-        <v>-251.687000</v>
+        <v>-251.68700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>72581.209082</v>
+        <v>72581.209082000001</v>
       </c>
       <c r="G26" s="1">
-        <v>20.161447</v>
+        <v>20.161446999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1170.510000</v>
+        <v>1170.51</v>
       </c>
       <c r="I26" s="1">
-        <v>-212.227000</v>
+        <v>-212.227</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>72591.419228</v>
+        <v>72591.419227999999</v>
       </c>
       <c r="L26" s="1">
-        <v>20.164283</v>
+        <v>20.164283000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1197.670000</v>
+        <v>1197.67</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.715000</v>
+        <v>-148.715</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>72601.777692</v>
+        <v>72601.777692000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.167160</v>
+        <v>20.167159999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1205.620000</v>
+        <v>1205.6199999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.567000</v>
+        <v>-127.56699999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>72612.162418</v>
+        <v>72612.162418000007</v>
       </c>
       <c r="V26" s="1">
-        <v>20.170045</v>
+        <v>20.170044999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1213.280000</v>
+        <v>1213.28</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.396000</v>
+        <v>-107.396</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>72622.437079</v>
+        <v>72622.437078999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.172899</v>
+        <v>20.172899000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.000500</v>
+        <v>-91.000500000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>72632.882293</v>
+        <v>72632.882293000002</v>
       </c>
       <c r="AF26" s="1">
         <v>20.175801</v>
       </c>
       <c r="AG26" s="1">
-        <v>1226.310000</v>
+        <v>1226.31</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.596500</v>
+        <v>-86.596500000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>72643.471384</v>
+        <v>72643.471384000004</v>
       </c>
       <c r="AK26" s="1">
         <v>20.178742</v>
       </c>
       <c r="AL26" s="1">
-        <v>1233.720000</v>
+        <v>1233.72</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.031300</v>
+        <v>-90.031300000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>72654.394281</v>
+        <v>72654.394281000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>20.181776</v>
+        <v>20.181775999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1241.860000</v>
+        <v>1241.8599999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.975000</v>
+        <v>-101.97499999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>72665.815658</v>
+        <v>72665.815658000007</v>
       </c>
       <c r="AU26" s="1">
         <v>20.184949</v>
       </c>
       <c r="AV26" s="1">
-        <v>1252.050000</v>
+        <v>1252.05</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.285000</v>
+        <v>-121.285</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>72676.767362</v>
+        <v>72676.767361999999</v>
       </c>
       <c r="AZ26" s="1">
         <v>20.187991</v>
       </c>
       <c r="BA26" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.718000</v>
+        <v>-138.71799999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>72687.412959</v>
+        <v>72687.412958999994</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.190948</v>
+        <v>20.190947999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1301.310000</v>
+        <v>1301.31</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.340000</v>
+        <v>-220.34</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>72698.878974</v>
+        <v>72698.878974000007</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.194133</v>
+        <v>20.194133000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1371.630000</v>
+        <v>1371.63</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.746000</v>
+        <v>-355.74599999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>72709.495842</v>
+        <v>72709.495842000004</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.197082</v>
+        <v>20.197082000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1486.800000</v>
+        <v>1486.8</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.450000</v>
+        <v>-575.45000000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>72720.778834</v>
+        <v>72720.778833999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>20.200216</v>
+        <v>20.200216000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1619.970000</v>
+        <v>1619.97</v>
       </c>
       <c r="BV26" s="1">
-        <v>-822.543000</v>
+        <v>-822.54300000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>72731.358499</v>
+        <v>72731.358498999994</v>
       </c>
       <c r="BY26" s="1">
-        <v>20.203155</v>
+        <v>20.203154999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1772.440000</v>
+        <v>1772.44</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1090.540000</v>
+        <v>-1090.54</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>72744.699890</v>
+        <v>72744.699890000004</v>
       </c>
       <c r="CD26" s="1">
         <v>20.206861</v>
       </c>
       <c r="CE26" s="1">
-        <v>2189.650000</v>
+        <v>2189.65</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1737.420000</v>
+        <v>-1737.42</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>